--- a/public/preprocessing/@quraishihab.xlsx
+++ b/public/preprocessing/@quraishihab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13750</v>
+        <v>29352</v>
       </c>
       <c r="C2" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">allah menetapkan empat bulan terhormat di antara dua belas bulan salah satunya bulan rajab allah berpesan dalam </t>
+          <t>perlu adanya pemurnian melalui seleksi terhadap hadishadis palsu ataupun dhaif agar mengetahui riwayat mana yang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['allah', 'menetapkan', 'empat', 'bulan', 'terhormat', 'di', 'antara', 'dua', 'belas', 'bulan', 'salah', 'satunya', 'bulan', 'rajab', 'allah', 'berpesan', 'dalam']</t>
+          <t>['perlu', 'adanya', 'pemurnian', 'melalui', 'seleksi', 'terhadap', 'hadishadis', 'palsu', 'ataupun', 'dhaif', 'agar', 'mengetahui', 'riwayat', 'mana', 'yang']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['perlu', 'adanya', 'pemurnian', 'melalui', 'seleksi', 'terhadap', 'hadishadis', 'palsu', 'ataupun', 'dhaif', 'agar', 'mengetahui', 'riwayat', 'mana', 'yang']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['allah', 'menetapkan', 'terhormat', 'belas', 'salah', 'satunya', 'rajab', 'allah', 'berpesan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['allah', 'tetap', 'hormat', 'belas', 'salah', 'satu', 'rajab', 'allah', 'pesan']</t>
+          <t>['pemurnian', 'seleksi', 'hadishadis', 'palsu', 'dhaif', 'riwayat']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['murni', 'seleksi', 'hadishadis', 'palsu', 'dhaif', 'riwayat']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13751</v>
+        <v>29353</v>
       </c>
       <c r="C3" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>malaikat selalu hadir di tengah manusia mereka mengawasi mencatat amal mengukuhkan hati menjaga dan akan menca</t>
+          <t xml:space="preserve">allah menetapkan empat bulan terhormat di antara dua belas bulan salah satunya bulan rajab allah berpesan dalam </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['malaikat', 'selalu', 'hadir', 'di', 'tengah', 'manusia', 'mereka', 'mengawasi', 'mencatat', 'amal', 'mengukuhkan', 'hati', 'menjaga', 'dan', 'akan', 'menca']</t>
+          <t>['allah', 'menetapkan', 'empat', 'bulan', 'terhormat', 'di', 'antara', 'dua', 'belas', 'bulan', 'salah', 'satunya', 'bulan', 'rajab', 'allah', 'berpesan', 'dalam']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['allah', 'menetapkan', 'empat', 'bulan', 'terhormat', 'di', 'antara', 'dua', 'belas', 'bulan', 'salah', 'satunya', 'bulan', 'rajab', 'allah', 'berpesan', 'dalam']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['malaikat', 'hadir', 'manusia', 'mengawasi', 'mencatat', 'amal', 'mengukuhkan', 'hati', 'menjaga', 'menca']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['malaikat', 'hadir', 'manusia', 'awas', 'catat', 'amal', 'kukuh', 'hati', 'jaga', 'menca']</t>
+          <t>['allah', 'menetapkan', 'terhormat', 'belas', 'salah', 'satunya', 'rajab', 'allah', 'berpesan']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['allah', 'tetap', 'hormat', 'belas', 'salah', 'satu', 'rajab', 'allah', 'pesan']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13752</v>
+        <v>29354</v>
       </c>
       <c r="C4" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">banyak keterangan tentang malaikat di antaranya malaikat tidak jemu beribadah pada allah mereka tidak melakukan </t>
+          <t>malaikat selalu hadir di tengah manusia mereka mengawasi mencatat amal mengukuhkan hati menjaga dan akan menca</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['banyak', 'keterangan', 'tentang', 'malaikat', 'di', 'antaranya', 'malaikat', 'tidak', 'jemu', 'beribadah', 'pada', 'allah', 'mereka', 'tidak', 'melakukan']</t>
+          <t>['malaikat', 'selalu', 'hadir', 'di', 'tengah', 'manusia', 'mereka', 'mengawasi', 'mencatat', 'amal', 'mengukuhkan', 'hati', 'menjaga', 'dan', 'akan', 'menca']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['malaikat', 'selalu', 'hadir', 'di', 'tengah', 'manusia', 'mereka', 'mengawasi', 'mencatat', 'amal', 'mengukuhkan', 'hati', 'menjaga', 'dan', 'akan', 'menca']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['keterangan', 'malaikat', 'malaikat', 'jemu', 'beribadah', 'allah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['terang', 'malaikat', 'malaikat', 'jemu', 'ibadah', 'allah']</t>
+          <t>['malaikat', 'hadir', 'manusia', 'mengawasi', 'mencatat', 'amal', 'mengukuhkan', 'hati', 'menjaga', 'menca']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['malaikat', 'hadir', 'manusia', 'awas', 'catat', 'amal', 'kukuh', 'hati', 'jaga', 'menca']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13753</v>
+        <v>29355</v>
       </c>
       <c r="C5" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pokok dari keimanan pada malaikat adalah percaya akan wujudnya bukan pada rinciannya termasuk asal penciptaannya</t>
+          <t xml:space="preserve">banyak keterangan tentang malaikat di antaranya malaikat tidak jemu beribadah pada allah mereka tidak melakukan </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['pokok', 'dari', 'keimanan', 'pada', 'malaikat', 'adalah', 'percaya', 'akan', 'wujudnya', 'bukan', 'pada', 'rinciannya', 'termasuk', 'asal', 'penciptaannya']</t>
+          <t>['banyak', 'keterangan', 'tentang', 'malaikat', 'di', 'antaranya', 'malaikat', 'tidak', 'jemu', 'beribadah', 'pada', 'allah', 'mereka', 'tidak', 'melakukan']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['banyak', 'keterangan', 'tentang', 'malaikat', 'di', 'antaranya', 'malaikat', 'tidak', 'jemu', 'beribadah', 'pada', 'allah', 'mereka', 'tidak', 'melakukan']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['pokok', 'keimanan', 'malaikat', 'percaya', 'wujudnya', 'rinciannya', 'penciptaannya']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['pokok', 'iman', 'malaikat', 'percaya', 'wujud', 'rinciannya', 'cipta']</t>
+          <t>['keterangan', 'malaikat', 'malaikat', 'jemu', 'beribadah', 'allah']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['terang', 'malaikat', 'malaikat', 'jemu', 'ibadah', 'allah']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13754</v>
+        <v>29356</v>
       </c>
       <c r="C6" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>allah itu esa dalam dzat sifat serta perbuatannya meyakini keesaan allah berarti meyakini bahwa allah adalah sa</t>
+          <t>pokok dari keimanan pada malaikat adalah percaya akan wujudnya bukan pada rinciannya termasuk asal penciptaannya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['allah', 'itu', 'esa', 'dalam', 'dzat', 'sifat', 'serta', 'perbuatannya', 'meyakini', 'keesaan', 'allah', 'berarti', 'meyakini', 'bahwa', 'allah', 'adalah', 'sa']</t>
+          <t>['pokok', 'dari', 'keimanan', 'pada', 'malaikat', 'adalah', 'percaya', 'akan', 'wujudnya', 'bukan', 'pada', 'rinciannya', 'termasuk', 'asal', 'penciptaannya']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['pokok', 'dari', 'keimanan', 'pada', 'malaikat', 'adalah', 'percaya', 'akan', 'wujudnya', 'bukan', 'pada', 'rinciannya', 'termasuk', 'asal', 'penciptaannya']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['allah', 'esa', 'dzat', 'sifat', 'perbuatannya', 'keesaan', 'allah', 'allah', 'sa']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['allah', 'esa', 'dzat', 'sifat', 'buat', 'esa', 'allah', 'allah', 'sa']</t>
+          <t>['pokok', 'keimanan', 'malaikat', 'percaya', 'wujudnya', 'rinciannya', 'penciptaannya']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['pokok', 'iman', 'malaikat', 'percaya', 'wujud', 'rinciannya', 'cipta']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13755</v>
+        <v>29357</v>
       </c>
       <c r="C7" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>semua ciptaan allah itu pasti menakjubkan namun terkadang kita tidak merasa takjub karena merasa terbiasa padah</t>
+          <t>allah itu esa dalam dzat sifat serta perbuatannya meyakini keesaan allah berarti meyakini bahwa allah adalah sa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['semua', 'ciptaan', 'allah', 'itu', 'pasti', 'menakjubkan', 'namun', 'terkadang', 'kita', 'tidak', 'merasa', 'takjub', 'karena', 'merasa', 'terbiasa', 'padah']</t>
+          <t>['allah', 'itu', 'esa', 'dalam', 'dzat', 'sifat', 'serta', 'perbuatannya', 'meyakini', 'keesaan', 'allah', 'berarti', 'meyakini', 'bahwa', 'allah', 'adalah', 'sa']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['allah', 'itu', 'esa', 'dalam', 'zat', 'sifat', 'serta', 'perbuatannya', 'meyakini', 'keesaan', 'allah', 'berarti', 'meyakini', 'bahwa', 'allah', 'adalah', 'sa']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['ciptaan', 'allah', 'menakjubkan', 'terkadang', 'takjub', 'terbiasa', 'padah']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['cipta', 'allah', 'takjub', 'terkadang', 'takjub', 'biasa', 'padah']</t>
+          <t>['allah', 'esa', 'zat', 'sifat', 'perbuatannya', 'keesaan', 'allah', 'allah', 'sa']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['allah', 'esa', 'zat', 'sifat', 'buat', 'esa', 'allah', 'allah', 'sa']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13756</v>
+        <v>29358</v>
       </c>
       <c r="C8" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>zakat sejak masa nabi hingga sekarang selalu berkembang pelaksanaannya dan tetap harus memenuhi unsur keadilan dan</t>
+          <t>semua ciptaan allah itu pasti menakjubkan namun terkadang kita tidak merasa takjub karena merasa terbiasa padah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['zakat', 'sejak', 'masa', 'nabi', 'hingga', 'sekarang', 'selalu', 'berkembang', 'pelaksanaannya', 'dan', 'tetap', 'harus', 'memenuhi', 'unsur', 'keadilan', 'dan']</t>
+          <t>['semua', 'ciptaan', 'allah', 'itu', 'pasti', 'menakjubkan', 'namun', 'terkadang', 'kita', 'tidak', 'merasa', 'takjub', 'karena', 'merasa', 'terbiasa', 'padah']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['semua', 'ciptaan', 'allah', 'itu', 'pasti', 'menakjubkan', 'namun', 'terkadang', 'kita', 'tidak', 'merasa', 'takjub', 'karena', 'merasa', 'terbiasa', 'padah']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['zakat', 'nabi', 'berkembang', 'pelaksanaannya', 'memenuhi', 'unsur', 'keadilan']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['zakat', 'nabi', 'kembang', 'laksana', 'penuh', 'unsur', 'adil']</t>
+          <t>['ciptaan', 'allah', 'menakjubkan', 'terkadang', 'takjub', 'terbiasa', 'padah']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['cipta', 'allah', 'takjub', 'terkadang', 'takjub', 'biasa', 'padah']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13757</v>
+        <v>29359</v>
       </c>
       <c r="C9" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">sangatlah wajar jika allah meminta porsi atas keterlibatannya dalam kesuksesan manusia mendapatkan harta allah </t>
+          <t>zakat sejak masa nabi hingga sekarang selalu berkembang pelaksanaannya dan tetap harus memenuhi unsur keadilan dan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['sangatlah', 'wajar', 'jika', 'allah', 'meminta', 'porsi', 'atas', 'keterlibatannya', 'dalam', 'kesuksesan', 'manusia', 'mendapatkan', 'harta', 'allah']</t>
+          <t>['zakat', 'sejak', 'masa', 'nabi', 'hingga', 'sekarang', 'selalu', 'berkembang', 'pelaksanaannya', 'dan', 'tetap', 'harus', 'memenuhi', 'unsur', 'keadilan', 'dan']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['zakat', 'sejak', 'masa', 'nabi', 'hingga', 'sekarang', 'selalu', 'berkembang', 'pelaksanaannya', 'dan', 'tetap', 'harus', 'memenuhi', 'unsur', 'keadilan', 'dan']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['wajar', 'allah', 'porsi', 'keterlibatannya', 'kesuksesan', 'manusia', 'harta', 'allah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['wajar', 'allah', 'porsi', 'libat', 'sukses', 'manusia', 'harta', 'allah']</t>
+          <t>['zakat', 'nabi', 'berkembang', 'pelaksanaannya', 'memenuhi', 'unsur', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['zakat', 'nabi', 'kembang', 'laksana', 'penuh', 'unsur', 'adil']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13758</v>
+        <v>29360</v>
       </c>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>zakat dapat menyucikan jiwa dan membersihkan harta dari syubhat zakat tidak hanya bisa membuat spiritualitas berke</t>
+          <t xml:space="preserve">sangatlah wajar jika allah meminta porsi atas keterlibatannya dalam kesuksesan manusia mendapatkan harta allah </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['zakat', 'dapat', 'menyucikan', 'jiwa', 'dan', 'membersihkan', 'harta', 'dari', 'syubhat', 'zakat', 'tidak', 'hanya', 'bisa', 'membuat', 'spiritualitas', 'berke']</t>
+          <t>['sangatlah', 'wajar', 'jika', 'allah', 'meminta', 'porsi', 'atas', 'keterlibatannya', 'dalam', 'kesuksesan', 'manusia', 'mendapatkan', 'harta', 'allah']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sangatlah', 'wajar', 'jika', 'allah', 'meminta', 'porsi', 'atas', 'keterlibatannya', 'dalam', 'kesuksesan', 'manusia', 'mendapatkan', 'harta', 'allah']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['zakat', 'menyucikan', 'jiwa', 'membersihkan', 'harta', 'syubhat', 'zakat', 'spiritualitas', 'berke']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['zakat', 'suci', 'jiwa', 'bersih', 'harta', 'syubhat', 'zakat', 'spiritualitas', 'berke']</t>
+          <t>['wajar', 'allah', 'porsi', 'keterlibatannya', 'kesuksesan', 'manusia', 'harta', 'allah']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['wajar', 'allah', 'porsi', 'libat', 'sukses', 'manusia', 'harta', 'allah']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13759</v>
+        <v>29361</v>
       </c>
       <c r="C11" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jangan tinggalkan doa ini setelah shalat</t>
+          <t>zakat dapat menyucikan jiwa dan membersihkan harta dari syubhat zakat tidak hanya bisa membuat spiritualitas berke</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['jangan', 'tinggalkan', 'doa', 'ini', 'setelah', 'shalat']</t>
+          <t>['zakat', 'dapat', 'menyucikan', 'jiwa', 'dan', 'membersihkan', 'harta', 'dari', 'syubhat', 'zakat', 'tidak', 'hanya', 'bisa', 'membuat', 'spiritualitas', 'berke']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['zakat', 'dapat', 'menyucikan', 'jiwa', 'dan', 'membersihkan', 'harta', 'dari', 'syubhat', 'zakat', 'tidak', 'hanya', 'bisa', 'membuat', 'spiritualitas', 'berke']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['tinggalkan', 'doa', 'shalat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['tinggal', 'doa', 'shalat']</t>
+          <t>['zakat', 'menyucikan', 'jiwa', 'membersihkan', 'harta', 'syubhat', 'zakat', 'spiritualitas', 'berke']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['zakat', 'suci', 'jiwa', 'bersih', 'harta', 'syubhat', 'zakat', 'spiritualitas', 'berke']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13760</v>
+        <v>29362</v>
       </c>
       <c r="C12" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>banyak orang yang shalat tapi sedikit sekali yang mendirikan shalat secara sempurna dalam alquran yang dituntut</t>
+          <t>jangan tinggalkan doa ini setelah shalat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['banyak', 'orang', 'yang', 'shalat', 'tapi', 'sedikit', 'sekali', 'yang', 'mendirikan', 'shalat', 'secara', 'sempurna', 'dalam', 'alquran', 'yang', 'dituntut']</t>
+          <t>['jangan', 'tinggalkan', 'doa', 'ini', 'setelah', 'shalat']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['jangan', 'tinggalkan', 'doa', 'ini', 'setelah', 'salat']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['orang', 'shalat', 'mendirikan', 'shalat', 'sempurna', 'alquran', 'dituntut']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['orang', 'shalat', 'diri', 'shalat', 'sempurna', 'alquran', 'tuntut']</t>
+          <t>['tinggalkan', 'doa', 'salat']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['tinggal', 'doa', 'salat']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13761</v>
+        <v>29363</v>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>persaksikan atas kemahaesaan allah itu persaksian hati bukan mata maupun akal allah mempunyai sifatsifat yang</t>
+          <t>banyak orang yang shalat tapi sedikit sekali yang mendirikan shalat secara sempurna dalam alquran yang dituntut</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['persaksikan', 'atas', 'kemahaesaan', 'allah', 'itu', 'persaksian', 'hati', 'bukan', 'mata', 'maupun', 'akal', 'allah', 'mempunyai', 'sifatsifat', 'yang']</t>
+          <t>['banyak', 'orang', 'yang', 'shalat', 'tapi', 'sedikit', 'sekali', 'yang', 'mendirikan', 'shalat', 'secara', 'sempurna', 'dalam', 'alquran', 'yang', 'dituntut']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['banyak', 'orang', 'yang', 'salat', 'tapi', 'sedikit', 'sekali', 'yang', 'mendirikan', 'salat', 'secara', 'sempurna', 'dalam', 'alquran', 'yang', 'dituntut']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['persaksikan', 'kemahaesaan', 'allah', 'persaksian', 'hati', 'mata', 'akal', 'allah', 'sifatsifat']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['saksi', 'kemahaesaan', 'allah', 'saksi', 'hati', 'mata', 'akal', 'allah', 'sifatsifat']</t>
+          <t>['orang', 'salat', 'mendirikan', 'salat', 'sempurna', 'alquran', 'dituntut']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['orang', 'salat', 'diri', 'salat', 'sempurna', 'alquran', 'tuntut']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13762</v>
+        <v>29364</v>
       </c>
       <c r="C14" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tidak cukup beriman kepada allah hanya melalui hati tanpa mengucapkan syahadat walaupun allah tidak membutuhkannya</t>
+          <t>persaksikan atas kemahaesaan allah itu persaksian hati bukan mata maupun akal allah mempunyai sifatsifat yang</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['tidak', 'cukup', 'beriman', 'kepada', 'allah', 'hanya', 'melalui', 'hati', 'tanpa', 'mengucapkan', 'syahadat', 'walaupun', 'allah', 'tidak', 'membutuhkannya']</t>
+          <t>['persaksikan', 'atas', 'kemahaesaan', 'allah', 'itu', 'persaksian', 'hati', 'bukan', 'mata', 'maupun', 'akal', 'allah', 'mempunyai', 'sifatsifat', 'yang']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['persaksikan', 'atas', 'kemahaesaan', 'allah', 'itu', 'persaksian', 'hati', 'bukan', 'mata', 'maupun', 'akal', 'allah', 'mempunyai', 'sifatsifat', 'yang']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['beriman', 'allah', 'hati', 'syahadat', 'allah', 'membutuhkannya']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['iman', 'allah', 'hati', 'syahadat', 'allah', 'butuh']</t>
+          <t>['persaksikan', 'kemahaesaan', 'allah', 'persaksian', 'hati', 'mata', 'akal', 'allah', 'sifatsifat']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['saksi', 'kemahaesaan', 'allah', 'saksi', 'hati', 'mata', 'akal', 'allah', 'sifatsifat']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13763</v>
+        <v>29365</v>
       </c>
       <c r="C15" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>peristiwa pembelahan dada nabi bukanlah mengeluarkan kotoran di dalamnya namun menambahkan kesucian dan menambahka</t>
+          <t>tidak cukup beriman kepada allah hanya melalui hati tanpa mengucapkan syahadat walaupun allah tidak membutuhkannya</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pembelahan', 'dada', 'nabi', 'bukanlah', 'mengeluarkan', 'kotoran', 'di', 'dalamnya', 'namun', 'menambahkan', 'kesucian', 'dan', 'menambahka']</t>
+          <t>['tidak', 'cukup', 'beriman', 'kepada', 'allah', 'hanya', 'melalui', 'hati', 'tanpa', 'mengucapkan', 'syahadat', 'walaupun', 'allah', 'tidak', 'membutuhkannya']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['tidak', 'cukup', 'beriman', 'kepada', 'allah', 'hanya', 'melalui', 'hati', 'tanpa', 'mengucapkan', 'syahadat', 'walaupun', 'allah', 'tidak', 'membutuhkannya']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pembelahan', 'dada', 'nabi', 'mengeluarkan', 'kotoran', 'dalamnya', 'kesucian', 'menambahka']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['peristiwa', 'belah', 'dada', 'nabi', 'keluar', 'kotor', 'dalam', 'suci', 'menambahka']</t>
+          <t>['beriman', 'allah', 'hati', 'syahadat', 'allah', 'membutuhkannya']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['iman', 'allah', 'hati', 'syahadat', 'allah', 'butuh']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13764</v>
+        <v>29366</v>
       </c>
       <c r="C16" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rasulullah sudah mencapai puncak kemuliaan ketika membaca uraian maulid beliau maka kita ikut mendapatkan kemulia</t>
+          <t>peristiwa pembelahan dada nabi bukanlah mengeluarkan kotoran di dalamnya namun menambahkan kesucian dan menambahka</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rasulullah', 'sudah', 'mencapai', 'puncak', 'kemuliaan', 'ketika', 'membaca', 'uraian', 'maulid', 'beliau', 'maka', 'kita', 'ikut', 'mendapatkan', 'kemulia']</t>
+          <t>['peristiwa', 'pembelahan', 'dada', 'nabi', 'bukanlah', 'mengeluarkan', 'kotoran', 'di', 'dalamnya', 'namun', 'menambahkan', 'kesucian', 'dan', 'menambahka']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['peristiwa', 'pembelahan', 'dada', 'nabi', 'bukanlah', 'mengeluarkan', 'kotoran', 'di', 'dalamnya', 'namun', 'menambahkan', 'kesucian', 'dan', 'menambahka']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['rasulullah', 'mencapai', 'puncak', 'kemuliaan', 'membaca', 'uraian', 'maulid', 'beliau', 'kemulia']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['rasulullah', 'capai', 'puncak', 'mulia', 'baca', 'urai', 'maulid', 'beliau', 'mulia']</t>
+          <t>['peristiwa', 'pembelahan', 'dada', 'nabi', 'mengeluarkan', 'kotoran', 'dalamnya', 'kesucian', 'menambahka']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['peristiwa', 'belah', 'dada', 'nabi', 'keluar', 'kotor', 'dalam', 'suci', 'menambahka']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13765</v>
+        <v>29367</v>
       </c>
       <c r="C17" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">tujuan utama perjalanan menuju allah adalah untuk semakin mengenalnya agar timbul rasa cinta kepadanya sering </t>
+          <t>rasulullah sudah mencapai puncak kemuliaan ketika membaca uraian maulid beliau maka kita ikut mendapatkan kemulia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['tujuan', 'utama', 'perjalanan', 'menuju', 'allah', 'adalah', 'untuk', 'semakin', 'mengenalnya', 'agar', 'timbul', 'rasa', 'cinta', 'kepadanya', 'sering']</t>
+          <t>['rasulullah', 'sudah', 'mencapai', 'puncak', 'kemuliaan', 'ketika', 'membaca', 'uraian', 'maulid', 'beliau', 'maka', 'kita', 'ikut', 'mendapatkan', 'kemulia']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rasulullah', 'sudah', 'mencapai', 'puncak', 'kemuliaan', 'ketika', 'membaca', 'uraian', 'maulid', 'beliau', 'maka', 'kita', 'ikut', 'mendapatkan', 'kemulia']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['tujuan', 'utama', 'perjalanan', 'allah', 'mengenalnya', 'timbul', 'cinta']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['tuju', 'utama', 'jalan', 'allah', 'kenal', 'timbul', 'cinta']</t>
+          <t>['rasulullah', 'mencapai', 'puncak', 'kemuliaan', 'membaca', 'uraian', 'maulid', 'beliau', 'kemulia']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'capai', 'puncak', 'mulia', 'baca', 'urai', 'maulid', 'beliau', 'mulia']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13766</v>
+        <v>29368</v>
       </c>
       <c r="C18" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>perjalanan menuju allah itu perjalanan mendaki dibutuhkan tekad yang kuat karena banyak rintangan dan rayuan all</t>
+          <t xml:space="preserve">tujuan utama perjalanan menuju allah adalah untuk semakin mengenalnya agar timbul rasa cinta kepadanya sering </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['perjalanan', 'menuju', 'allah', 'itu', 'perjalanan', 'mendaki', 'dibutuhkan', 'tekad', 'yang', 'kuat', 'karena', 'banyak', 'rintangan', 'dan', 'rayuan', 'all']</t>
+          <t>['tujuan', 'utama', 'perjalanan', 'menuju', 'allah', 'adalah', 'untuk', 'semakin', 'mengenalnya', 'agar', 'timbul', 'rasa', 'cinta', 'kepadanya', 'sering']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tujuan', 'utama', 'perjalanan', 'menuju', 'allah', 'adalah', 'untuk', 'semakin', 'mengenalnya', 'agar', 'timbul', 'rasa', 'cinta', 'kepadanya', 'sering']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['perjalanan', 'allah', 'perjalanan', 'mendaki', 'dibutuhkan', 'tekad', 'kuat', 'rintangan', 'rayuan', 'all']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['jalan', 'allah', 'jalan', 'daki', 'butuh', 'tekad', 'kuat', 'rintang', 'rayu', 'all']</t>
+          <t>['tujuan', 'utama', 'perjalanan', 'allah', 'mengenalnya', 'timbul', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['tuju', 'utama', 'jalan', 'allah', 'kenal', 'timbul', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13767</v>
+        <v>29369</v>
       </c>
       <c r="C19" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">allah adalah awal serta akhir perjalanan seorang muslim pangkalan tempat bertolak dan pelabuhan tempat bersauh </t>
+          <t>perjalanan menuju allah itu perjalanan mendaki dibutuhkan tekad yang kuat karena banyak rintangan dan rayuan all</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['allah', 'adalah', 'awal', 'serta', 'akhir', 'perjalanan', 'seorang', 'muslim', 'pangkalan', 'tempat', 'bertolak', 'dan', 'pelabuhan', 'tempat', 'bersauh']</t>
+          <t>['perjalanan', 'menuju', 'allah', 'itu', 'perjalanan', 'mendaki', 'dibutuhkan', 'tekad', 'yang', 'kuat', 'karena', 'banyak', 'rintangan', 'dan', 'rayuan', 'all']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['perjalanan', 'menuju', 'allah', 'itu', 'perjalanan', 'mendaki', 'dibutuhkan', 'tekad', 'yang', 'kuat', 'karena', 'banyak', 'rintangan', 'dan', 'rayuan', 'all']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['allah', 'perjalanan', 'muslim', 'pangkalan', 'bertolak', 'pelabuhan', 'bersauh']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['allah', 'jalan', 'muslim', 'pangkal', 'tolak', 'labuh', 'sauh']</t>
+          <t>['perjalanan', 'allah', 'perjalanan', 'mendaki', 'dibutuhkan', 'tekad', 'kuat', 'rintangan', 'rayuan', 'all']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['jalan', 'allah', 'jalan', 'daki', 'butuh', 'tekad', 'kuat', 'rintang', 'rayu', 'all']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13768</v>
+        <v>29370</v>
       </c>
       <c r="C20" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>allah mempunyai hubungan dengan orang yang menyambung silaturahim karena kata rahim terambil dari arrahman arr</t>
+          <t xml:space="preserve">allah adalah awal serta akhir perjalanan seorang muslim pangkalan tempat bertolak dan pelabuhan tempat bersauh </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['allah', 'mempunyai', 'hubungan', 'dengan', 'orang', 'yang', 'menyambung', 'silaturahim', 'karena', 'kata', 'rahim', 'terambil', 'dari', 'arrahman', 'arr']</t>
+          <t>['allah', 'adalah', 'awal', 'serta', 'akhir', 'perjalanan', 'seorang', 'muslim', 'pangkalan', 'tempat', 'bertolak', 'dan', 'pelabuhan', 'tempat', 'bersauh']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['allah', 'adalah', 'awal', 'serta', 'akhir', 'perjalanan', 'seorang', 'muslim', 'pangkalan', 'tempat', 'bertolak', 'dan', 'pelabuhan', 'tempat', 'bersauh']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['allah', 'hubungan', 'orang', 'menyambung', 'silaturahim', 'rahim', 'terambil', 'arrahman', 'arr']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['allah', 'hubung', 'orang', 'sambung', 'silaturahim', 'rahim', 'ambil', 'arrahman', 'arr']</t>
+          <t>['allah', 'perjalanan', 'muslim', 'pangkalan', 'bertolak', 'pelabuhan', 'bersauh']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['allah', 'jalan', 'muslim', 'pangkal', 'tolak', 'labuh', 'sauh']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13769</v>
+        <v>29371</v>
       </c>
       <c r="C21" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>manusia adalah tamu allah ambillah beragam hidangan yang engkau inginkan asalkan dihidangkan oleh allah dan janga</t>
+          <t>allah mempunyai hubungan dengan orang yang menyambung silaturahim karena kata rahim terambil dari arrahman arr</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['manusia', 'adalah', 'tamu', 'allah', 'ambillah', 'beragam', 'hidangan', 'yang', 'engkau', 'inginkan', 'asalkan', 'dihidangkan', 'oleh', 'allah', 'dan', 'janga']</t>
+          <t>['allah', 'mempunyai', 'hubungan', 'dengan', 'orang', 'yang', 'menyambung', 'silaturahim', 'karena', 'kata', 'rahim', 'terambil', 'dari', 'arrahman', 'arr']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['allah', 'mempunyai', 'hubungan', 'dengan', 'orang', 'yang', 'menyambung', 'silaturahim', 'karena', 'kata', 'rahim', 'terambil', 'dari', 'arrahman', 'arr']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['manusia', 'tamu', 'allah', 'ambillah', 'beragam', 'hidangan', 'engkau', 'dihidangkan', 'allah', 'janga']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['manusia', 'tamu', 'allah', 'ambil', 'agam', 'hidang', 'engkau', 'hidang', 'allah', 'janga']</t>
+          <t>['allah', 'hubungan', 'orang', 'menyambung', 'silaturahim', 'rahim', 'terambil', 'arrahman', 'arr']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['allah', 'hubung', 'orang', 'sambung', 'silaturahim', 'rahim', 'ambil', 'arrahman', 'arr']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13770</v>
+        <v>29372</v>
       </c>
       <c r="C22" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>semua pendapat ulama yang berwewenang untuk berijtihad mempunyai potensi kebenaran dan kesalahan dan perbedaannya</t>
+          <t>manusia adalah tamu allah ambillah beragam hidangan yang engkau inginkan asalkan dihidangkan oleh allah dan janga</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['semua', 'pendapat', 'ulama', 'yang', 'berwewenang', 'untuk', 'berijtihad', 'mempunyai', 'potensi', 'kebenaran', 'dan', 'kesalahan', 'dan', 'perbedaannya']</t>
+          <t>['manusia', 'adalah', 'tamu', 'allah', 'ambillah', 'beragam', 'hidangan', 'yang', 'engkau', 'inginkan', 'asalkan', 'dihidangkan', 'oleh', 'allah', 'dan', 'janga']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['manusia', 'adalah', 'tamu', 'allah', 'ambillah', 'beragam', 'hidangan', 'yang', 'engkau', 'inginkan', 'asalkan', 'dihidangkan', 'oleh', 'allah', 'dan', 'jangan']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['pendapat', 'ulama', 'berwewenang', 'berijtihad', 'potensi', 'kebenaran', 'kesalahan', 'perbedaannya']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['dapat', 'ulama', 'berwewenang', 'ijtihad', 'potensi', 'benar', 'salah', 'beda']</t>
+          <t>['manusia', 'tamu', 'allah', 'ambillah', 'beragam', 'hidangan', 'engkau', 'dihidangkan', 'allah']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['manusia', 'tamu', 'allah', 'ambil', 'agam', 'hidang', 'engkau', 'hidang', 'allah']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13771</v>
+        <v>29373</v>
       </c>
       <c r="C23" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>silakan beda dalam menafsirkan alquran dan ikuti kaidahkaidah yang benar dari ulama jangan sampai membuat kesal</t>
+          <t>semua pendapat ulama yang berwewenang untuk berijtihad mempunyai potensi kebenaran dan kesalahan dan perbedaannya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['silakan', 'beda', 'dalam', 'menafsirkan', 'alquran', 'dan', 'ikuti', 'kaidahkaidah', 'yang', 'benar', 'dari', 'ulama', 'jangan', 'sampai', 'membuat', 'kesal']</t>
+          <t>['semua', 'pendapat', 'ulama', 'yang', 'berwewenang', 'untuk', 'berijtihad', 'mempunyai', 'potensi', 'kebenaran', 'dan', 'kesalahan', 'dan', 'perbedaannya']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['semua', 'pendapat', 'ulama', 'yang', 'berwewenang', 'untuk', 'berijtihad', 'mempunyai', 'potensi', 'kebenaran', 'dan', 'kesalahan', 'dan', 'perbedaannya']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['silakan', 'beda', 'menafsirkan', 'alquran', 'ikuti', 'kaidahkaidah', 'ulama', 'kesal']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['sila', 'beda', 'tafsir', 'alquran', 'ikut', 'kaidahkaidah', 'ulama', 'kesal']</t>
+          <t>['pendapat', 'ulama', 'berwewenang', 'berijtihad', 'potensi', 'kebenaran', 'kesalahan', 'perbedaannya']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['dapat', 'ulama', 'berwewenang', 'ijtihad', 'potensi', 'benar', 'salah', 'beda']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13772</v>
+        <v>29374</v>
       </c>
       <c r="C24" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>agama islam terbuka dalam menerima kebenaran darimanapun asalnya namun tetaplah ingat pesan alquran untuk jangan</t>
+          <t>silakan beda dalam menafsirkan alquran dan ikuti kaidahkaidah yang benar dari ulama jangan sampai membuat kesal</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['agama', 'islam', 'terbuka', 'dalam', 'menerima', 'kebenaran', 'darimanapun', 'asalnya', 'namun', 'tetaplah', 'ingat', 'pesan', 'alquran', 'untuk', 'jangan']</t>
+          <t>['silakan', 'beda', 'dalam', 'menafsirkan', 'alquran', 'dan', 'ikuti', 'kaidahkaidah', 'yang', 'benar', 'dari', 'ulama', 'jangan', 'sampai', 'membuat', 'kesal']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['silakan', 'beda', 'dalam', 'menafsirkan', 'alquran', 'dan', 'ikuti', 'kaidahkaidah', 'yang', 'benar', 'dari', 'ulama', 'jangan', 'sampai', 'membuat', 'kesal']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['agama', 'islam', 'terbuka', 'menerima', 'kebenaran', 'darimanapun', 'asalnya', 'tetaplah', 'pesan', 'alquran']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['agama', 'islam', 'buka', 'terima', 'benar', 'darimanapun', 'asal', 'tetap', 'pesan', 'alquran']</t>
+          <t>['silakan', 'beda', 'menafsirkan', 'alquran', 'ikuti', 'kaidahkaidah', 'ulama', 'kesal']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['sila', 'beda', 'tafsir', 'alquran', 'ikut', 'kaidahkaidah', 'ulama', 'kesal']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13773</v>
+        <v>29375</v>
       </c>
       <c r="C25" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>alam barzakh menjadi kesempatan orang yang meninggal untuk menambah bekal akhirat melalui doadoa dan amal baik da</t>
+          <t>agama islam terbuka dalam menerima kebenaran darimanapun asalnya namun tetaplah ingat pesan alquran untuk jangan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['alam', 'barzakh', 'menjadi', 'kesempatan', 'orang', 'yang', 'meninggal', 'untuk', 'menambah', 'bekal', 'akhirat', 'melalui', 'doadoa', 'dan', 'amal', 'baik', 'da']</t>
+          <t>['agama', 'islam', 'terbuka', 'dalam', 'menerima', 'kebenaran', 'darimanapun', 'asalnya', 'namun', 'tetaplah', 'ingat', 'pesan', 'alquran', 'untuk', 'jangan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['agama', 'islam', 'terbuka', 'dalam', 'menerima', 'kebenaran', 'darimanapun', 'asalnya', 'namun', 'tetaplah', 'ingat', 'pesan', 'alquran', 'untuk', 'jangan']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['alam', 'barzakh', 'kesempatan', 'orang', 'meninggal', 'menambah', 'bekal', 'akhirat', 'doadoa', 'amal', 'da']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['alam', 'barzakh', 'sempat', 'orang', 'tinggal', 'tambah', 'bekal', 'akhirat', 'doadoa', 'amal', 'da']</t>
+          <t>['agama', 'islam', 'terbuka', 'menerima', 'kebenaran', 'darimanapun', 'asalnya', 'tetaplah', 'pesan', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['agama', 'islam', 'buka', 'terima', 'benar', 'darimanapun', 'asal', 'tetap', 'pesan', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13774</v>
+        <v>29376</v>
       </c>
       <c r="C26" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>manusia ketika hidup di dunia itu masih tertidur ketika mati barulah mereka terbangun melihat kenyataan kehidupan</t>
+          <t>alam barzakh menjadi kesempatan orang yang meninggal untuk menambah bekal akhirat melalui doadoa dan amal baik da</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['manusia', 'ketika', 'hidup', 'di', 'dunia', 'itu', 'masih', 'tertidur', 'ketika', 'mati', 'barulah', 'mereka', 'terbangun', 'melihat', 'kenyataan', 'kehidupan']</t>
+          <t>['alam', 'barzakh', 'menjadi', 'kesempatan', 'orang', 'yang', 'meninggal', 'untuk', 'menambah', 'bekal', 'akhirat', 'melalui', 'doadoa', 'dan', 'amal', 'baik', 'da']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['alam', 'barzakh', 'menjadi', 'kesempatan', 'orang', 'yang', 'meninggal', 'untuk', 'menambah', 'bekal', 'akhirat', 'melalui', 'doadoa', 'dan', 'amal', 'baik', 'dan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['manusia', 'hidup', 'dunia', 'tertidur', 'mati', 'barulah', 'terbangun', 'kenyataan', 'kehidupan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['manusia', 'hidup', 'dunia', 'tidur', 'mati', 'baru', 'bangun', 'nyata', 'hidup']</t>
+          <t>['alam', 'barzakh', 'kesempatan', 'orang', 'meninggal', 'menambah', 'bekal', 'akhirat', 'doadoa', 'amal']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['alam', 'barzakh', 'sempat', 'orang', 'tinggal', 'tambah', 'bekal', 'akhirat', 'doadoa', 'amal']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13775</v>
+        <v>29377</v>
       </c>
       <c r="C27" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jangan korbankan nasionalisme demi agama dan jangan juga korbankan agama demi nasionalisme keduanya saling menyatu</t>
+          <t>manusia ketika hidup di dunia itu masih tertidur ketika mati barulah mereka terbangun melihat kenyataan kehidupan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['jangan', 'korbankan', 'nasionalisme', 'demi', 'agama', 'dan', 'jangan', 'juga', 'korbankan', 'agama', 'demi', 'nasionalisme', 'keduanya', 'saling', 'menyatu']</t>
+          <t>['manusia', 'ketika', 'hidup', 'di', 'dunia', 'itu', 'masih', 'tertidur', 'ketika', 'mati', 'barulah', 'mereka', 'terbangun', 'melihat', 'kenyataan', 'kehidupan']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 15 outcomes&gt;</t>
+          <t>['manusia', 'ketika', 'hidup', 'di', 'dunia', 'itu', 'masih', 'tertidur', 'ketika', 'mati', 'barulah', 'mereka', 'terbangun', 'melihat', 'kenyataan', 'kehidupan']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['korbankan', 'nasionalisme', 'agama', 'korbankan', 'agama', 'nasionalisme', 'menyatu']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['korban', 'nasionalisme', 'agama', 'korban', 'agama', 'nasionalisme', 'satu']</t>
+          <t>['manusia', 'hidup', 'dunia', 'tertidur', 'mati', 'barulah', 'terbangun', 'kenyataan', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['manusia', 'hidup', 'dunia', 'tidur', 'mati', 'baru', 'bangun', 'nyata', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13776</v>
+        <v>29378</v>
       </c>
       <c r="C28" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>salah satu pesan sayyidina ali dalam suratnya untuk sayyidina hasan hindari berucap menyangkut apa yang engkau</t>
+          <t>jangan korbankan nasionalisme demi agama dan jangan juga korbankan agama demi nasionalisme keduanya saling menyatu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['salah', 'satu', 'pesan', 'sayyidina', 'ali', 'dalam', 'suratnya', 'untuk', 'sayyidina', 'hasan', 'hindari', 'berucap', 'menyangkut', 'apa', 'yang', 'engkau']</t>
+          <t>['jangan', 'korbankan', 'nasionalisme', 'demi', 'agama', 'dan', 'jangan', 'juga', 'korbankan', 'agama', 'demi', 'nasionalisme', 'keduanya', 'saling', 'menyatu']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['jangan', 'korbankan', 'nasionalisme', 'demi', 'agama', 'dan', 'jangan', 'juga', 'korbankan', 'agama', 'demi', 'nasionalisme', 'keduanya', 'saling', 'menyatu']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['salah', 'pesan', 'sayyidina', 'ali', 'suratnya', 'sayyidina', 'hasan', 'hindari', 'berucap', 'engkau']</t>
+          <t>&lt;FreqDist with 10 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['salah', 'pesan', 'sayyidina', 'ali', 'surat', 'sayyidina', 'hasan', 'hindar', 'ucap', 'engkau']</t>
+          <t>['korbankan', 'nasionalisme', 'agama', 'korbankan', 'agama', 'nasionalisme', 'menyatu']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['korban', 'nasionalisme', 'agama', 'korban', 'agama', 'nasionalisme', 'satu']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13777</v>
+        <v>29379</v>
       </c>
       <c r="C29" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jika anda hidup sendirian bersandingan dengan batu maka tidak perlu akhlak namun jika ada manusia siapapun itu ma</t>
+          <t>salah satu pesan sayyidina ali dalam suratnya untuk sayyidina hasan hindari berucap menyangkut apa yang engkau</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['jika', 'anda', 'hidup', 'sendirian', 'bersandingan', 'dengan', 'batu', 'maka', 'tidak', 'perlu', 'akhlak', 'namun', 'jika', 'ada', 'manusia', 'siapapun', 'itu', 'ma']</t>
+          <t>['salah', 'satu', 'pesan', 'sayyidina', 'ali', 'dalam', 'suratnya', 'untuk', 'sayyidina', 'hasan', 'hindari', 'berucap', 'menyangkut', 'apa', 'yang', 'engkau']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['salah', 'satu', 'pesan', 'sayyidina', 'ali', 'dalam', 'suratnya', 'untuk', 'sayyidina', 'hasan', 'hindari', 'berucap', 'menyangkut', 'apa', 'yang', 'engkau']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['hidup', 'bersandingan', 'batu', 'akhlak', 'manusia', 'ma']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['hidup', 'sanding', 'batu', 'akhlak', 'manusia', 'ma']</t>
+          <t>['salah', 'pesan', 'sayyidina', 'ali', 'suratnya', 'sayyidina', 'hasan', 'hindari', 'berucap', 'engkau']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['salah', 'pesan', 'sayyidina', 'ali', 'surat', 'sayyidina', 'hasan', 'hindar', 'ucap', 'engkau']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13778</v>
+        <v>29380</v>
       </c>
       <c r="C30" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jangan hanya sekedar takut pada allah tetapi usahakanlah ada rasa kagum terhadapnya karena salah satu berkurang</t>
+          <t>jika anda hidup sendirian bersandingan dengan batu maka tidak perlu akhlak namun jika ada manusia siapapun itu ma</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['jangan', 'hanya', 'sekedar', 'takut', 'pada', 'allah', 'tetapi', 'usahakanlah', 'ada', 'rasa', 'kagum', 'terhadapnya', 'karena', 'salah', 'satu', 'berkurang']</t>
+          <t>['jika', 'anda', 'hidup', 'sendirian', 'bersandingan', 'dengan', 'batu', 'maka', 'tidak', 'perlu', 'akhlak', 'namun', 'jika', 'ada', 'manusia', 'siapapun', 'itu', 'ma']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['jika', 'anda', 'hidup', 'sendirian', 'bersandingan', 'dengan', 'batu', 'maka', 'tidak', 'perlu', 'akhlak', 'namun', 'jika', 'ada', 'manusia', 'siapapun', 'itu', 'sama']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['sekedar', 'takut', 'allah', 'usahakanlah', 'kagum', 'salah', 'berkurang']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['dar', 'takut', 'allah', 'usaha', 'kagum', 'salah', 'kurang']</t>
+          <t>['hidup', 'bersandingan', 'batu', 'akhlak', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['hidup', 'sanding', 'batu', 'akhlak', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13779</v>
+        <v>29381</v>
       </c>
       <c r="C31" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>manusia tidak terusir dari surga tujuan awal manusia diciptakan adalah untuk menjadi khalifah allah di bumi dan me</t>
+          <t>jangan hanya sekedar takut pada allah tetapi usahakanlah ada rasa kagum terhadapnya karena salah satu berkurang</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['manusia', 'tidak', 'terusir', 'dari', 'surga', 'tujuan', 'awal', 'manusia', 'diciptakan', 'adalah', 'untuk', 'menjadi', 'khalifah', 'allah', 'di', 'bumi', 'dan', 'me']</t>
+          <t>['jangan', 'hanya', 'sekedar', 'takut', 'pada', 'allah', 'tetapi', 'usahakanlah', 'ada', 'rasa', 'kagum', 'terhadapnya', 'karena', 'salah', 'satu', 'berkurang']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['jangan', 'hanya', 'sekadar', 'takut', 'pada', 'allah', 'tetapi', 'usahakanlah', 'ada', 'rasa', 'kagum', 'terhadapnya', 'karena', 'salah', 'satu', 'berkurang']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['manusia', 'terusir', 'surga', 'tujuan', 'manusia', 'diciptakan', 'khalifah', 'allah', 'bumi', 'me']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['manusia', 'usir', 'surga', 'tuju', 'manusia', 'cipta', 'khalifah', 'allah', 'bumi', 'me']</t>
+          <t>['takut', 'allah', 'usahakanlah', 'kagum', 'salah', 'berkurang']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['takut', 'allah', 'usaha', 'kagum', 'salah', 'kurang']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13780</v>
+        <v>29382</v>
       </c>
       <c r="C32" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sudahkah anda beragama baik dan buruknya keberagamaan ditentukan dari interaksi manusia dengan tuhan jadi jika</t>
+          <t>manusia tidak terusir dari surga tujuan awal manusia diciptakan adalah untuk menjadi khalifah allah di bumi dan me</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['sudahkah', 'anda', 'beragama', 'baik', 'dan', 'buruknya', 'keberagamaan', 'ditentukan', 'dari', 'interaksi', 'manusia', 'dengan', 'tuhan', 'jadi', 'jika']</t>
+          <t>['manusia', 'tidak', 'terusir', 'dari', 'surga', 'tujuan', 'awal', 'manusia', 'diciptakan', 'adalah', 'untuk', 'menjadi', 'khalifah', 'allah', 'di', 'bumi', 'dan', 'me']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['manusia', 'tidak', 'terusir', 'dari', 'surga', 'tujuan', 'awal', 'manusia', 'diciptakan', 'adalah', 'untuk', 'menjadi', 'khalifah', 'allah', 'di', 'bumi', 'dan', 'me']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['beragama', 'buruknya', 'keberagamaan', 'ditentukan', 'interaksi', 'manusia', 'tuhan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['agama', 'buruk', 'agama', 'tentu', 'interaksi', 'manusia', 'tuhan']</t>
+          <t>['manusia', 'terusir', 'surga', 'tujuan', 'manusia', 'diciptakan', 'khalifah', 'allah', 'bumi', 'me']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['manusia', 'usir', 'surga', 'tuju', 'manusia', 'cipta', 'khalifah', 'allah', 'bumi', 'me']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13781</v>
+        <v>29383</v>
       </c>
       <c r="C33" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>amal bukan jaminan masuk surga bukanlah banyaknya amal perbuatan yang menyebabkan masuk ke surga tetapi karena ad</t>
+          <t>sudahkah anda beragama baik dan buruknya keberagamaan ditentukan dari interaksi manusia dengan tuhan jadi jika</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['amal', 'bukan', 'jaminan', 'masuk', 'surga', 'bukanlah', 'banyaknya', 'amal', 'perbuatan', 'yang', 'menyebabkan', 'masuk', 'ke', 'surga', 'tetapi', 'karena', 'ad']</t>
+          <t>['sudahkah', 'anda', 'beragama', 'baik', 'dan', 'buruknya', 'keberagamaan', 'ditentukan', 'dari', 'interaksi', 'manusia', 'dengan', 'tuhan', 'jadi', 'jika']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['sudahkah', 'anda', 'beragama', 'baik', 'dan', 'buruknya', 'keberagamaan', 'ditentukan', 'dari', 'interaksi', 'manusia', 'dengan', 'tuhan', 'jadi', 'jika']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['amal', 'jaminan', 'masuk', 'surga', 'banyaknya', 'amal', 'perbuatan', 'menyebabkan', 'masuk', 'surga', 'ad']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['amal', 'jamin', 'masuk', 'surga', 'banyak', 'amal', 'buat', 'sebab', 'masuk', 'surga', 'ad']</t>
+          <t>['beragama', 'buruknya', 'keberagamaan', 'ditentukan', 'interaksi', 'manusia', 'tuhan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['agama', 'buruk', 'agama', 'tentu', 'interaksi', 'manusia', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13782</v>
+        <v>29384</v>
       </c>
       <c r="C34" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>masih mau menuntut di akhirat seseorang pasti pernah berbuat salah bahkan kesalahannya terkadang tidak bisa dilup</t>
+          <t>amal bukan jaminan masuk surga bukanlah banyaknya amal perbuatan yang menyebabkan masuk ke surga tetapi karena ad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['masih', 'mau', 'menuntut', 'di', 'akhirat', 'seseorang', 'pasti', 'pernah', 'berbuat', 'salah', 'bahkan', 'kesalahannya', 'terkadang', 'tidak', 'bisa', 'dilup']</t>
+          <t>['amal', 'bukan', 'jaminan', 'masuk', 'surga', 'bukanlah', 'banyaknya', 'amal', 'perbuatan', 'yang', 'menyebabkan', 'masuk', 'ke', 'surga', 'tetapi', 'karena', 'ad']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['amal', 'bukan', 'jaminan', 'masuk', 'surga', 'bukanlah', 'banyaknya', 'amal', 'perbuatan', 'yang', 'menyebabkan', 'masuk', 'ke', 'surga', 'tetapi', 'karena', 'ada']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['menuntut', 'akhirat', 'berbuat', 'salah', 'kesalahannya', 'terkadang', 'dilup']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['tuntut', 'akhirat', 'buat', 'salah', 'salah', 'terkadang', 'lup']</t>
+          <t>['amal', 'jaminan', 'masuk', 'surga', 'banyaknya', 'amal', 'perbuatan', 'menyebabkan', 'masuk', 'surga']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['amal', 'jamin', 'masuk', 'surga', 'banyak', 'amal', 'buat', 'sebab', 'masuk', 'surga']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13783</v>
+        <v>29385</v>
       </c>
       <c r="C35" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>hebatnya istilah halal bi halal walau terkesan memakai bahasa arab halal bi halal merupakan istilah khas indonesi</t>
+          <t>masih mau menuntut di akhirat seseorang pasti pernah berbuat salah bahkan kesalahannya terkadang tidak bisa dilup</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['hebatnya', 'istilah', 'halal', 'bi', 'halal', 'walau', 'terkesan', 'memakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'merupakan', 'istilah', 'khas', 'indonesi']</t>
+          <t>['masih', 'mau', 'menuntut', 'di', 'akhirat', 'seseorang', 'pasti', 'pernah', 'berbuat', 'salah', 'bahkan', 'kesalahannya', 'terkadang', 'tidak', 'bisa', 'dilup']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['masih', 'mau', 'menuntut', 'di', 'akhirat', 'seseorang', 'pasti', 'pernah', 'berbuat', 'salah', 'bahkan', 'kesalahannya', 'terkadang', 'tidak', 'bisa', 'dilup']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['hebatnya', 'istilah', 'halal', 'bi', 'halal', 'terkesan', 'memakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'istilah', 'khas', 'indonesi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['hebat', 'istilah', 'halal', 'bi', 'halal', 'kes', 'pakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'istilah', 'khas', 'indonesi']</t>
+          <t>['menuntut', 'akhirat', 'berbuat', 'salah', 'kesalahannya', 'terkadang', 'dilup']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['tuntut', 'akhirat', 'buat', 'salah', 'salah', 'terkadang', 'lup']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13784</v>
+        <v>29386</v>
       </c>
       <c r="C36" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>episode idul fitri episode bonus khusus untuk semua temanteman yang sudah jadi teman belajar selama ramadan ini</t>
+          <t>hebatnya istilah halal bi halal walau terkesan memakai bahasa arab halal bi halal merupakan istilah khas indonesi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'untuk', 'semua', 'temanteman', 'yang', 'sudah', 'jadi', 'teman', 'belajar', 'selama', 'ramadan', 'ini']</t>
+          <t>['hebatnya', 'istilah', 'halal', 'bi', 'halal', 'walau', 'terkesan', 'memakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'merupakan', 'istilah', 'khas', 'indonesi']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['hebatnya', 'istilah', 'halal', 'bi', 'halal', 'walau', 'terkesan', 'memakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'merupakan', 'istilah', 'khas', 'indonesia']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'temanteman', 'teman', 'belajar', 'ramadan']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'temanteman', 'teman', 'ajar', 'ramadan']</t>
+          <t>['hebatnya', 'istilah', 'halal', 'bi', 'halal', 'terkesan', 'memakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'istilah', 'khas', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['hebat', 'istilah', 'halal', 'bi', 'halal', 'kes', 'pakai', 'bahasa', 'arab', 'halal', 'bi', 'halal', 'istilah', 'khas', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13785</v>
+        <v>29387</v>
       </c>
       <c r="C37" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>episode qs alhadid episode akan mulai tayang pada sabtu mei pukul wib selengkapn</t>
+          <t>episode idul fitri episode bonus khusus untuk semua temanteman yang sudah jadi teman belajar selama ramadan ini</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'untuk', 'semua', 'temanteman', 'yang', 'sudah', 'jadi', 'teman', 'belajar', 'selama', 'ramadan', 'ini']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'untuk', 'semua', 'temanteman', 'yang', 'sudah', 'jadi', 'teman', 'belajar', 'selama', 'ramadan', 'ini']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkapn']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'temanteman', 'teman', 'belajar', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['episode', 'idul', 'fitri', 'episode', 'bonus', 'khusus', 'temanteman', 'teman', 'ajar', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13786</v>
+        <v>29388</v>
       </c>
       <c r="C38" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>episode qs alhadid episode akan mulai tayang pada jumat mei pukul wib selengkapn</t>
+          <t>episode qs alhadid episode akan mulai tayang pada sabtu mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkapn']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'sabtu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'sabtu', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13787</v>
+        <v>29389</v>
       </c>
       <c r="C39" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>episode qs alhadid episode akan mulai tayang pada rabu mei pukul wib selengkapny</t>
+          <t>episode qs alhadid episode akan mulai tayang pada jumat mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'rabu', 'mei', 'wib', 'selengkapny']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'rabu', 'mei', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'jumat', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'jumat', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13788</v>
+        <v>29390</v>
       </c>
       <c r="C40" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>episode qs alhadid episode akan mulai tayang pada selasa mei pukul wib selengkapn</t>
+          <t>episode qs alhadid episode akan mulai tayang pada rabu mei pukul wib selengkapny</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'wib', 'selengkapny']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkapn']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'rabu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'rabu', 'mei', 'waktu indonesia bagi barat', 'selengkapny']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13789</v>
+        <v>29391</v>
       </c>
       <c r="C41" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>episode qs alhadid episode akan mulai tayang pada senin mei pukul wib selengkapnya</t>
+          <t>episode qs alhadid episode akan mulai tayang pada selasa mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'senin', 'mei', 'wib', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'senin', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'selasa', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'selasa', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13790</v>
+        <v>29392</v>
       </c>
       <c r="C42" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>episode qs alwaqiah episode akan mulai tayang pada ahad mei pukul wib selengkapnya</t>
+          <t>episode qs alhadid episode akan mulai tayang pada senin mei pukul wib selengkapnya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'senin', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alhadid', 'episode', 'tayang', 'senin', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13791</v>
+        <v>29393</v>
       </c>
       <c r="C43" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>episode qs alwaqiah episode akan mulai tayang pada sabtu mei pukul wib selengkap</t>
+          <t>episode qs alwaqiah episode akan mulai tayang pada ahad mei pukul wib selengkapnya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'ahad', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'ahad', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13792</v>
+        <v>29394</v>
       </c>
       <c r="C44" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>episode qs alwaqiah episode akan mulai tayang pada jumat mei pukul wib selengkap</t>
+          <t>episode qs alwaqiah episode akan mulai tayang pada sabtu mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'sabtu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'sabtu', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13793</v>
+        <v>29395</v>
       </c>
       <c r="C45" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>episode qs alwaqiah episode akan mulai tayang pada kamis mei pukul wib selengkap</t>
+          <t>episode qs alwaqiah episode akan mulai tayang pada jumat mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'kamis', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'kamis', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'jumat', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'jumat', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13794</v>
+        <v>29396</v>
       </c>
       <c r="C46" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>episode qs alwaqiah episode akan mulai tayang pada rabu mei pukul wib selengkapny</t>
+          <t>episode qs alwaqiah episode akan mulai tayang pada kamis mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'rabu', 'mei', 'wib', 'selengkapny']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'rabu', 'mei', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'kamis', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'kamis', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13795</v>
+        <v>29397</v>
       </c>
       <c r="C47" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>episode qs arrahman episode akan mulai tayang pada selasa mei pukul wib selengkap</t>
+          <t>episode qs alwaqiah episode akan mulai tayang pada rabu mei pukul wib selengkapny</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'wib', 'selengkapny']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'rabu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'rabu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alwaqiah', 'episode', 'tayang', 'rabu', 'mei', 'waktu indonesia bagi barat', 'selengkapny']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13796</v>
+        <v>29398</v>
       </c>
       <c r="C48" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>episode qs arrahman episode akan mulai tayang pada senin mei pukul wib selengkap</t>
+          <t>episode qs arrahman episode akan mulai tayang pada selasa mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'senin', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'senin', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'selasa', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'selasa', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13797</v>
+        <v>29399</v>
       </c>
       <c r="C49" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>episode qs arrahman episode akan mulai tayang pada ahad mei pukul wib selengkapn</t>
+          <t>episode qs arrahman episode akan mulai tayang pada senin mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'selengkapn']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'senin', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'senin', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13798</v>
+        <v>29400</v>
       </c>
       <c r="C50" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>episode qs arrahman episode akan mulai tayang pada sabtu mei pukul wib selengkapn</t>
+          <t>episode qs arrahman episode akan mulai tayang pada ahad mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkapn']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'ahad', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'ahad', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13799</v>
+        <v>29401</v>
       </c>
       <c r="C51" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>semoga bermanfaat</t>
+          <t>episode qs arrahman episode akan mulai tayang pada sabtu mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['semoga', 'bermanfaat']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['moga', 'manfaat']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'sabtu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'sabtu', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13800</v>
+        <v>29402</v>
       </c>
       <c r="C52" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>episode qs arrahman episode akan mulai tayang pada jumat mei pukul wib selengkapny</t>
+          <t>semoga bermanfaat</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapny']</t>
+          <t>['semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkapny']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkapny']</t>
+          <t>['semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13801</v>
+        <v>29403</v>
       </c>
       <c r="C53" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>episode qs alqamar episode akan mulai tayang pada kamis mei pukul wib selengkapny</t>
+          <t>episode qs arrahman episode akan mulai tayang pada jumat mei pukul wib selengkapny</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapny']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'kamis', 'mei', 'wib', 'selengkapny']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'kamis', 'mei', 'wib', 'selengkapny']</t>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'jumat', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'arrahman', 'episode', 'tayang', 'jumat', 'mei', 'waktu indonesia bagi barat', 'selengkapny']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13802</v>
+        <v>29404</v>
       </c>
       <c r="C54" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>episode qs alqamar episode akan mulai tayang pada selasa mei pukul wib selengkapn</t>
+          <t>episode qs alqamar episode akan mulai tayang pada kamis mei pukul wib selengkapny</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'wib', 'selengkapny']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'kamis', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkapn']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkapn']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'kamis', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapny']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'kamis', 'mei', 'waktu indonesia bagi barat', 'selengkapny']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13803</v>
+        <v>29405</v>
       </c>
       <c r="C55" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>episode qs alqamar episode akan mulai tayang pada selasa mei pukul wib selengkap</t>
+          <t>episode qs alqamar episode akan mulai tayang pada selasa mei pukul wib selengkapn</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkap']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkapn']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'selengkap']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapn']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'waktu indonesia bagi barat', 'selengkapn']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13804</v>
+        <v>29406</v>
       </c>
       <c r="C56" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>episode qs alqamar episode akan mulai tayang pada senin mei pukul wib selengkapnya</t>
+          <t>episode qs alqamar episode akan mulai tayang pada selasa mei pukul wib selengkap</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'wib', 'selengkap']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'selasa', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'senin', 'mei', 'wib', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'senin', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'waktu, indonesia, bagian, barat', 'selengkap']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'selasa', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13805</v>
+        <v>29407</v>
       </c>
       <c r="C57" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>episode qs alqamar episode akan mulai tayang pada ahad mei pukul wib selengkapnya</t>
+          <t>episode qs alqamar episode akan mulai tayang pada senin mei pukul wib selengkapnya</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'senin', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'ahad', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'senin', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'senin', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13806</v>
+        <v>29408</v>
       </c>
       <c r="C58" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>episode qs annajm episode akan mulai tayang pada sabtu mei pukul wib selengkapnya di</t>
+          <t>episode qs alqamar episode akan mulai tayang pada ahad mei pukul wib selengkapnya</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapnya', 'di']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'ahad', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'selengkapnya']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'sabtu', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'ahad', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'alqamar', 'episode', 'tayang', 'ahad', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13807</v>
+        <v>29409</v>
       </c>
       <c r="C59" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">episode qs annajm episode akan mulai tayang pada jumat mei pukul wib selengkapnya </t>
+          <t>episode qs annajm episode akan mulai tayang pada sabtu mei pukul wib selengkapnya di</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'wib', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'sabtu', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'selengkapnya']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'jumat', 'mei', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'sabtu', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'sabtu', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13808</v>
+        <v>29410</v>
       </c>
       <c r="C60" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>episode qs annajm eps tayang pada selasa april pukul wib selengkapnya di</t>
+          <t xml:space="preserve">episode qs annajm episode akan mulai tayang pada jumat mei pukul wib selengkapnya </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'eps', 'tayang', 'pada', 'selasa', 'april', 'pukul', 'wib', 'selengkapnya', 'di']</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'wib', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'akan', 'mulai', 'tayang', 'pada', 'jumat', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'eps', 'tayang', 'selasa', 'april', 'wib', 'selengkapnya']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'eps', 'tayang', 'selasa', 'april', 'wib', 'lengkap']</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'jumat', 'mei', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'jumat', 'mei', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13809</v>
+        <v>29411</v>
       </c>
       <c r="C61" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>simak penjelasan lengkap  quraish shihab dan di hidup bersama alquran edisi tafsir almishbah epi</t>
+          <t>episode qs annajm eps tayang pada selasa april pukul wib selengkapnya di</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['simak', 'penjelasan', 'lengkap', 'quraish', 'shihab', 'dan', 'di', 'hidup', 'bersama', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
+          <t>['episode', 'qs', 'annajm', 'eps', 'tayang', 'pada', 'selasa', 'april', 'pukul', 'wib', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'pada', 'selasa', 'april', 'pukul', 'waktu, indonesia, bagian, barat', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['simak', 'penjelasan', 'lengkap', 'quraish', 'shihab', 'hidup', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['simak', 'jelas', 'lengkap', 'quraish', 'shihab', 'hidup', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'selasa', 'april', 'waktu, indonesia, bagian, barat', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'annajm', 'episode', 'tayang', 'selasa', 'april', 'waktu indonesia bagi barat', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13810</v>
+        <v>29412</v>
       </c>
       <c r="C62" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>episode qs annajm tidak ada lagi alasan untuk ragu terhadap kebenaran alquran bahwa itu bersumber dar</t>
+          <t>simak penjelasan lengkap  quraish shihab dan di hidup bersama alquran edisi tafsir almishbah epi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'tidak', 'ada', 'lagi', 'alasan', 'untuk', 'ragu', 'terhadap', 'kebenaran', 'alquran', 'bahwa', 'itu', 'bersumber', 'dar']</t>
+          <t>['simak', 'penjelasan', 'lengkap', 'quraish', 'shihab', 'dan', 'di', 'hidup', 'bersama', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['simak', 'penjelasan', 'lengkap', 'quraish', 'shihab', 'dan', 'di', 'hidup', 'bersama', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'alasan', 'ragu', 'kebenaran', 'alquran', 'bersumber', 'dar']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['episode', 'qs', 'annajm', 'alas', 'ragu', 'benar', 'alquran', 'sumber', 'dar']</t>
+          <t>['simak', 'penjelasan', 'lengkap', 'quraish', 'shihab', 'hidup', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['simak', 'jelas', 'lengkap', 'quraish', 'shihab', 'hidup', 'alquran', 'edisi', 'tafsir', 'almishbah', 'epi']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13811</v>
+        <v>29413</v>
       </c>
       <c r="C63" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>hidup bersama alquran tafsir almishbah episode qs aththur eps tayang pada selasa april</t>
+          <t>episode qs annajm tidak ada lagi alasan untuk ragu terhadap kebenaran alquran bahwa itu bersumber dar</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'eps', 'tayang', 'pada', 'selasa', 'april']</t>
+          <t>['episode', 'qs', 'annajm', 'tidak', 'ada', 'lagi', 'alasan', 'untuk', 'ragu', 'terhadap', 'kebenaran', 'alquran', 'bahwa', 'itu', 'bersumber', 'dar']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['episode', 'qs', 'annajm', 'tidak', 'ada', 'lagi', 'alasan', 'untuk', 'ragu', 'terhadap', 'kebenaran', 'alquran', 'bahwa', 'itu', 'bersumber', 'dar']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'eps', 'tayang', 'selasa', 'april']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'eps', 'tayang', 'selasa', 'april']</t>
+          <t>['episode', 'qs', 'annajm', 'alasan', 'ragu', 'kebenaran', 'alquran', 'bersumber', 'dar']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['episode', 'qs', 'annajm', 'alas', 'ragu', 'benar', 'alquran', 'sumber', 'dar']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13812</v>
+        <v>29414</v>
       </c>
       <c r="C64" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>hidup bersama alquran tafsir almishbah episode qs aththur mulai tayang pada senin april</t>
+          <t>hidup bersama alquran tafsir almishbah episode qs aththur eps tayang pada selasa april</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'mulai', 'tayang', 'pada', 'senin', 'april']</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'eps', 'tayang', 'pada', 'selasa', 'april']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'episode', 'tayang', 'pada', 'selasa', 'april']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'tayang', 'senin', 'april']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'tayang', 'senin', 'april']</t>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'episode', 'tayang', 'selasa', 'april']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'episode', 'tayang', 'selasa', 'april']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13813</v>
+        <v>29415</v>
       </c>
       <c r="C65" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>hidup bersama alquran tafsir almishbah episode orang yang bertakwa akan diberikan allah balasan surga di akh</t>
+          <t>hidup bersama alquran tafsir almishbah episode qs aththur mulai tayang pada senin april</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'yang', 'bertakwa', 'akan', 'diberikan', 'allah', 'balasan', 'surga', 'di', 'akh']</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'mulai', 'tayang', 'pada', 'senin', 'april']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'mulai', 'tayang', 'pada', 'senin', 'april']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'bertakwa', 'allah', 'balasan', 'surga', 'akh']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'takwa', 'allah', 'balas', 'surga', 'akh']</t>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'tayang', 'senin', 'april']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'qs', 'aththur', 'tayang', 'senin', 'april']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13814</v>
+        <v>29416</v>
       </c>
       <c r="C66" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>assalamualaikum nantikan diskusi bersama saya dan sore ini pukul wib</t>
+          <t>hidup bersama alquran tafsir almishbah episode orang yang bertakwa akan diberikan allah balasan surga di akh</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'nantikan', 'diskusi', 'bersama', 'saya', 'dan', 'sore', 'ini', 'pukul', 'wib']</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'yang', 'bertakwa', 'akan', 'diberikan', 'allah', 'balasan', 'surga', 'di', 'akh']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['hidup', 'bersama', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'yang', 'bertakwa', 'akan', 'diberikan', 'allah', 'balasan', 'surga', 'di', 'akh']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'nantikan', 'diskusi', 'sore', 'wib']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'nanti', 'diskusi', 'sore', 'wib']</t>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'bertakwa', 'allah', 'balasan', 'surga', 'akh']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['hidup', 'alquran', 'tafsir', 'almishbah', 'episode', 'orang', 'takwa', 'allah', 'balas', 'surga', 'akh']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13815</v>
+        <v>29417</v>
       </c>
       <c r="C67" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>apakah ada dasarnya mencintai tanah air bagaimana contoh nabi saw tentang mencintai tanah air agama islam adalah</t>
+          <t>assalamualaikum nantikan diskusi bersama saya dan sore ini pukul wib</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['apakah', 'ada', 'dasarnya', 'mencintai', 'tanah', 'air', 'bagaimana', 'contoh', 'nabi', 'saw', 'tentang', 'mencintai', 'tanah', 'air', 'agama', 'islam', 'adalah']</t>
+          <t>['assalamualaikum', 'nantikan', 'diskusi', 'bersama', 'saya', 'dan', 'sore', 'ini', 'pukul', 'wib']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['assalamualaikum', 'nantikan', 'diskusi', 'bersama', 'saya', 'dan', 'sore', 'ini', 'pukul', 'waktu, indonesia, bagian, barat']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['dasarnya', 'mencintai', 'tanah', 'air', 'contoh', 'nabi', 'saw', 'mencintai', 'tanah', 'air', 'agama', 'islam']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['dasar', 'cinta', 'tanah', 'air', 'contoh', 'nabi', 'saw', 'cinta', 'tanah', 'air', 'agama', 'islam']</t>
+          <t>['assalamualaikum', 'nantikan', 'diskusi', 'sore', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'nanti', 'diskusi', 'sore', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13816</v>
+        <v>29418</v>
       </c>
       <c r="C68" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">apa yang dimaksud dengan bidah apa yang dimaksud dengan sunnah apakah setiap ibadah yang tidak dicontohan oleh </t>
+          <t>apakah ada dasarnya mencintai tanah air bagaimana contoh nabi saw tentang mencintai tanah air agama islam adalah</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'dimaksud', 'dengan', 'bidah', 'apa', 'yang', 'dimaksud', 'dengan', 'sunnah', 'apakah', 'setiap', 'ibadah', 'yang', 'tidak', 'dicontohan', 'oleh']</t>
+          <t>['apakah', 'ada', 'dasarnya', 'mencintai', 'tanah', 'air', 'bagaimana', 'contoh', 'nabi', 'saw', 'tentang', 'mencintai', 'tanah', 'air', 'agama', 'islam', 'adalah']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['apakah', 'ada', 'dasarnya', 'mencintai', 'tanah', 'air', 'bagaimana', 'contoh', 'nabi', 'saw', 'tentang', 'mencintai', 'tanah', 'air', 'agama', 'islam', 'adalah']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['bidah', 'sunnah', 'ibadah', 'dicontohan']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['bidah', 'sunnah', 'ibadah', 'contoh']</t>
+          <t>['dasarnya', 'mencintai', 'tanah', 'air', 'contoh', 'nabi', 'saw', 'mencintai', 'tanah', 'air', 'agama', 'islam']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['dasar', 'cinta', 'tanah', 'air', 'contoh', 'nabi', 'saw', 'cinta', 'tanah', 'air', 'agama', 'islam']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13817</v>
+        <v>29419</v>
       </c>
       <c r="C69" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>apakah mudik dicontohkan dalam agama apakah ada mudik secara batiniah silaturahim adalah fitrah manusia apa maks</t>
+          <t xml:space="preserve">apa yang dimaksud dengan bidah apa yang dimaksud dengan sunnah apakah setiap ibadah yang tidak dicontohan oleh </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['apakah', 'mudik', 'dicontohkan', 'dalam', 'agama', 'apakah', 'ada', 'mudik', 'secara', 'batiniah', 'silaturahim', 'adalah', 'fitrah', 'manusia', 'apa', 'maks']</t>
+          <t>['apa', 'yang', 'dimaksud', 'dengan', 'bidah', 'apa', 'yang', 'dimaksud', 'dengan', 'sunnah', 'apakah', 'setiap', 'ibadah', 'yang', 'tidak', 'dicontohan', 'oleh']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['apa', 'yang', 'dimaksud', 'dengan', 'bidah', 'apa', 'yang', 'dimaksud', 'dengan', 'sunnah', 'apakah', 'setiap', 'ibadah', 'yang', 'tidak', 'dicontohan', 'oleh']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['mudik', 'dicontohkan', 'agama', 'mudik', 'batiniah', 'silaturahim', 'fitrah', 'manusia', 'maks']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['mudik', 'contoh', 'agama', 'mudik', 'batiniah', 'silaturahim', 'fitrah', 'manusia', 'maks']</t>
+          <t>['bidah', 'sunnah', 'ibadah', 'dicontohan']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bidah', 'sunnah', 'ibadah', 'contoh']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13818</v>
+        <v>29420</v>
       </c>
       <c r="C70" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>apa yang dimaksud dengan salaf salafi dan salafiyah apa ciri ulama salaf haruskah kita mengikuti aliran salaf</t>
+          <t>apakah mudik dicontohkan dalam agama apakah ada mudik secara batiniah silaturahim adalah fitrah manusia apa maks</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'dimaksud', 'dengan', 'salaf', 'salafi', 'dan', 'salafiyah', 'apa', 'ciri', 'ulama', 'salaf', 'haruskah', 'kita', 'mengikuti', 'aliran', 'salaf']</t>
+          <t>['apakah', 'mudik', 'dicontohkan', 'dalam', 'agama', 'apakah', 'ada', 'mudik', 'secara', 'batiniah', 'silaturahim', 'adalah', 'fitrah', 'manusia', 'apa', 'maks']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['apakah', 'mudik', 'dicontohkan', 'dalam', 'agama', 'apakah', 'ada', 'mudik', 'secara', 'batiniah', 'silaturahim', 'adalah', 'fitrah', 'manusia', 'apa', 'maks']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['salaf', 'salafi', 'salafiyah', 'ciri', 'ulama', 'salaf', 'haruskah', 'mengikuti', 'aliran', 'salaf']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['salaf', 'salaf', 'salafiyah', 'ciri', 'ulama', 'salaf', 'harus', 'ikut', 'alir', 'salaf']</t>
+          <t>['mudik', 'dicontohkan', 'agama', 'mudik', 'batiniah', 'silaturahim', 'fitrah', 'manusia', 'maks']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['mudik', 'contoh', 'agama', 'mudik', 'batiniah', 'silaturahim', 'fitrah', 'manusia', 'maks']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13819</v>
+        <v>29421</v>
       </c>
       <c r="C71" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>apa yang menyebabkan iman bertambah apa yang menyebabkan iman kurang bagaimana agar iman selalu bertambah simak</t>
+          <t>apa yang dimaksud dengan salaf salafi dan salafiyah apa ciri ulama salaf haruskah kita mengikuti aliran salaf</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'menyebabkan', 'iman', 'bertambah', 'apa', 'yang', 'menyebabkan', 'iman', 'kurang', 'bagaimana', 'agar', 'iman', 'selalu', 'bertambah', 'simak']</t>
+          <t>['apa', 'yang', 'dimaksud', 'dengan', 'salaf', 'salafi', 'dan', 'salafiyah', 'apa', 'ciri', 'ulama', 'salaf', 'haruskah', 'kita', 'mengikuti', 'aliran', 'salaf']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 16 outcomes&gt;</t>
+          <t>['apa', 'yang', 'dimaksud', 'dengan', 'salaf', 'salafi', 'dan', 'salafiyah', 'apa', 'ciri', 'ulama', 'salaf', 'haruskah', 'kita', 'mengikuti', 'aliran', 'salaf']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'iman', 'bertambah', 'menyebabkan', 'iman', 'iman', 'bertambah', 'simak']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['sebab', 'iman', 'tambah', 'sebab', 'iman', 'iman', 'tambah', 'simak']</t>
+          <t>['salaf', 'salafi', 'salafiyah', 'ciri', 'ulama', 'salaf', 'haruskah', 'mengikuti', 'aliran', 'salaf']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['salaf', 'salaf', 'salafiyah', 'ciri', 'ulama', 'salaf', 'harus', 'ikut', 'alir', 'salaf']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13820</v>
+        <v>29422</v>
       </c>
       <c r="C72" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>siapa saja yg wajib membayar zakat fitrah mengapa anak kecil juga wajib membayar zakat fitrah apakah orang miskin</t>
+          <t>apa yang menyebabkan iman bertambah apa yang menyebabkan iman kurang bagaimana agar iman selalu bertambah simak</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['siapa', 'saja', 'yg', 'wajib', 'membayar', 'zakat', 'fitrah', 'mengapa', 'anak', 'kecil', 'juga', 'wajib', 'membayar', 'zakat', 'fitrah', 'apakah', 'orang', 'miskin']</t>
+          <t>['apa', 'yang', 'menyebabkan', 'iman', 'bertambah', 'apa', 'yang', 'menyebabkan', 'iman', 'kurang', 'bagaimana', 'agar', 'iman', 'selalu', 'bertambah', 'simak']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['apa', 'yang', 'menyebabkan', 'iman', 'bertambah', 'apa', 'yang', 'menyebabkan', 'iman', 'kurang', 'bagaimana', 'agar', 'iman', 'selalu', 'bertambah', 'simak']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['wajib', 'membayar', 'zakat', 'fitrah', 'anak', 'wajib', 'membayar', 'zakat', 'fitrah', 'orang', 'miskin']</t>
+          <t>&lt;FreqDist with 10 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['wajib', 'bayar', 'zakat', 'fitrah', 'anak', 'wajib', 'bayar', 'zakat', 'fitrah', 'orang', 'miskin']</t>
+          <t>['menyebabkan', 'iman', 'bertambah', 'menyebabkan', 'iman', 'iman', 'bertambah', 'simak']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['sebab', 'iman', 'tambah', 'sebab', 'iman', 'iman', 'tambah', 'simak']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13821</v>
+        <v>29423</v>
       </c>
       <c r="C73" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>apa contoh penerapan khilafah pada masa lalu apa kebaikan amp kekurangannya apakah kekhalifahan selalu sama modelny</t>
+          <t>siapa saja yg wajib membayar zakat fitrah mengapa anak kecil juga wajib membayar zakat fitrah apakah orang miskin</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['apa', 'contoh', 'penerapan', 'khilafah', 'pada', 'masa', 'lalu', 'apa', 'kebaikan', 'amp', 'kekurangannya', 'apakah', 'kekhalifahan', 'selalu', 'sama', 'modelny']</t>
+          <t>['siapa', 'saja', 'yg', 'wajib', 'membayar', 'zakat', 'fitrah', 'mengapa', 'anak', 'kecil', 'juga', 'wajib', 'membayar', 'zakat', 'fitrah', 'apakah', 'orang', 'miskin']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['siapa', 'saja', 'yang', 'wajib', 'membayar', 'zakat', 'fitrah', 'mengapa', 'anak', 'kecil', 'juga', 'wajib', 'membayar', 'zakat', 'fitrah', 'apakah', 'orang', 'miskin']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['contoh', 'penerapan', 'khilafah', 'kebaikan', 'kekurangannya', 'kekhalifahan', 'modelny']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['contoh', 'terap', 'khilafah', 'baik', 'kurang', 'khalifah', 'modelny']</t>
+          <t>['wajib', 'membayar', 'zakat', 'fitrah', 'anak', 'wajib', 'membayar', 'zakat', 'fitrah', 'orang', 'miskin']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['wajib', 'bayar', 'zakat', 'fitrah', 'anak', 'wajib', 'bayar', 'zakat', 'fitrah', 'orang', 'miskin']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13822</v>
+        <v>29424</v>
       </c>
       <c r="C74" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>apakah ada penafsiran islam yg berbedabeda apa saja batasan boleh tidaknya penafsiran yg berbeda apa saja yg mem</t>
+          <t>apa contoh penerapan khilafah pada masa lalu apa kebaikan amp kekurangannya apakah kekhalifahan selalu sama modelny</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['apakah', 'ada', 'penafsiran', 'islam', 'yg', 'berbedabeda', 'apa', 'saja', 'batasan', 'boleh', 'tidaknya', 'penafsiran', 'yg', 'berbeda', 'apa', 'saja', 'yg', 'mem']</t>
+          <t>['apa', 'contoh', 'penerapan', 'khilafah', 'pada', 'masa', 'lalu', 'apa', 'kebaikan', 'amp', 'kekurangannya', 'apakah', 'kekhalifahan', 'selalu', 'sama', 'modelny']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
+          <t>['apa', 'contoh', 'penerapan', 'khilafah', 'pada', 'masa', 'lalu', 'apa', 'kebaikan', 'amp', 'kekurangannya', 'apakah', 'kekhalifahan', 'selalu', 'sama', 'modelny']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['penafsiran', 'islam', 'berbedabeda', 'batasan', 'tidaknya', 'penafsiran', 'berbeda', 'mem']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['tafsir', 'islam', 'berbedabeda', 'batas', 'tidak', 'tafsir', 'beda', 'mem']</t>
+          <t>['contoh', 'penerapan', 'khilafah', 'kebaikan', 'kekurangannya', 'kekhalifahan', 'modelny']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['contoh', 'terap', 'khilafah', 'baik', 'kurang', 'khalifah', 'modelny']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13823</v>
+        <v>29425</v>
       </c>
       <c r="C75" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>siapa dan bagaimana ahli kitab menurut alquran bagaimana kita bersikap terhadap ahli kitab apakah ahli kitab sama</t>
+          <t>apakah ada penafsiran islam yg berbedabeda apa saja batasan boleh tidaknya penafsiran yg berbeda apa saja yg mem</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['siapa', 'dan', 'bagaimana', 'ahli', 'kitab', 'menurut', 'alquran', 'bagaimana', 'kita', 'bersikap', 'terhadap', 'ahli', 'kitab', 'apakah', 'ahli', 'kitab', 'sama']</t>
+          <t>['apakah', 'ada', 'penafsiran', 'islam', 'yg', 'berbedabeda', 'apa', 'saja', 'batasan', 'boleh', 'tidaknya', 'penafsiran', 'yg', 'berbeda', 'apa', 'saja', 'yg', 'mem']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['apakah', 'ada', 'penafsiran', 'islam', 'yang', 'berbedabeda', 'apa', 'saja', 'batasan', 'boleh', 'setidaknya', 'penafsiran', 'yang', 'berbeda', 'apa', 'saja', 'yang', 'mem']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['ahli', 'kitab', 'alquran', 'bersikap', 'ahli', 'kitab', 'ahli', 'kitab']</t>
+          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['ahli', 'kitab', 'alquran', 'sikap', 'ahli', 'kitab', 'ahli', 'kitab']</t>
+          <t>['penafsiran', 'islam', 'berbedabeda', 'batasan', 'penafsiran', 'berbeda', 'mem']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['tafsir', 'islam', 'berbedabeda', 'batas', 'tafsir', 'beda', 'mem']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13824</v>
+        <v>29426</v>
       </c>
       <c r="C76" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">bagaimana cara meraih lailatul qadar apa saja kemuliaankeagungan lailatul qadar apa ciri orang yang memperoleh </t>
+          <t>siapa dan bagaimana ahli kitab menurut alquran bagaimana kita bersikap terhadap ahli kitab apakah ahli kitab sama</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['bagaimana', 'cara', 'meraih', 'lailatul', 'qadar', 'apa', 'saja', 'kemuliaankeagungan', 'lailatul', 'qadar', 'apa', 'ciri', 'orang', 'yang', 'memperoleh']</t>
+          <t>['siapa', 'dan', 'bagaimana', 'ahli', 'kitab', 'menurut', 'alquran', 'bagaimana', 'kita', 'bersikap', 'terhadap', 'ahli', 'kitab', 'apakah', 'ahli', 'kitab', 'sama']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['siapa', 'dan', 'bagaimana', 'ahli', 'kitab', 'menurut', 'alquran', 'bagaimana', 'kita', 'bersikap', 'terhadap', 'ahli', 'kitab', 'apakah', 'ahli', 'kitab', 'sama']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['meraih', 'lailatul', 'qadar', 'kemuliaankeagungan', 'lailatul', 'qadar', 'ciri', 'orang', 'memperoleh']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['raih', 'lailatul', 'qadar', 'kemuliaankeagungan', 'lailatul', 'qadar', 'ciri', 'orang', 'oleh']</t>
+          <t>['ahli', 'kitab', 'alquran', 'bersikap', 'ahli', 'kitab', 'ahli', 'kitab']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['ahli', 'kitab', 'alquran', 'sikap', 'ahli', 'kitab', 'ahli', 'kitab']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13825</v>
+        <v>29427</v>
       </c>
       <c r="C77" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>apa pentingnya bermadzhab haruskah kita bermadzhab mengapa muncul banyak madzhab simak ustadz muchlis hanafi dgn</t>
+          <t xml:space="preserve">bagaimana cara meraih lailatul qadar apa saja kemuliaankeagungan lailatul qadar apa ciri orang yang memperoleh </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['apa', 'pentingnya', 'bermadzhab', 'haruskah', 'kita', 'bermadzhab', 'mengapa', 'muncul', 'banyak', 'madzhab', 'simak', 'ustadz', 'muchlis', 'hanafi', 'dgn']</t>
+          <t>['bagaimana', 'cara', 'meraih', 'lailatul', 'qadar', 'apa', 'saja', 'kemuliaankeagungan', 'lailatul', 'qadar', 'apa', 'ciri', 'orang', 'yang', 'memperoleh']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['bagaimana', 'cara', 'meraih', 'lailatul', 'qadar', 'apa', 'saja', 'kemuliaankeagungan', 'lailatul', 'qadar', 'apa', 'ciri', 'orang', 'yang', 'memperoleh']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['bermadzhab', 'haruskah', 'bermadzhab', 'muncul', 'madzhab', 'simak', 'ustadz', 'muchlis', 'hanafi']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['bermadzhab', 'harus', 'bermadzhab', 'muncul', 'madzhab', 'simak', 'ustadz', 'muchlis', 'hanafi']</t>
+          <t>['meraih', 'lailatul', 'qadar', 'kemuliaankeagungan', 'lailatul', 'qadar', 'ciri', 'orang', 'memperoleh']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['raih', 'lailatul', 'qadar', 'kemuliaankeagungan', 'lailatul', 'qadar', 'ciri', 'orang', 'oleh']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13826</v>
+        <v>29428</v>
       </c>
       <c r="C78" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>bagaimana menyikapi khilafiyah mengapa dalam islam banyak perbedaan pendapat bisakah berbeda tapi samasama bena</t>
+          <t>apa pentingnya bermadzhab haruskah kita bermadzhab mengapa muncul banyak madzhab simak ustadz muchlis hanafi dgn</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['bagaimana', 'menyikapi', 'khilafiyah', 'mengapa', 'dalam', 'islam', 'banyak', 'perbedaan', 'pendapat', 'bisakah', 'berbeda', 'tapi', 'samasama', 'bena']</t>
+          <t>['apa', 'pentingnya', 'bermadzhab', 'haruskah', 'kita', 'bermadzhab', 'mengapa', 'muncul', 'banyak', 'madzhab', 'simak', 'ustadz', 'muchlis', 'hanafi', 'dgn']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['apa', 'pentingnya', 'bermadzhab', 'haruskah', 'kita', 'bermadzhab', 'mengapa', 'muncul', 'banyak', 'madzhab', 'simak', 'ustaz', 'muchlis', 'hanafi', 'dengan']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['menyikapi', 'khilafiyah', 'islam', 'perbedaan', 'pendapat', 'berbeda', 'samasama', 'bena']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['sikap', 'khilafiyah', 'islam', 'beda', 'dapat', 'beda', 'samasama', 'bena']</t>
+          <t>['bermadzhab', 'haruskah', 'bermadzhab', 'muncul', 'madzhab', 'simak', 'ustaz', 'muchlis', 'hanafi']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bermadzhab', 'harus', 'bermadzhab', 'muncul', 'madzhab', 'simak', 'ustaz', 'muchlis', 'hanafi']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13827</v>
+        <v>29429</v>
       </c>
       <c r="C79" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>bagaimana solusi menghadapi puasa yang konsumtif budaya seperti apa yang dapat merusak puasa simak</t>
+          <t>bagaimana menyikapi khilafiyah mengapa dalam islam banyak perbedaan pendapat bisakah berbeda tapi samasama bena</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['bagaimana', 'solusi', 'menghadapi', 'puasa', 'yang', 'konsumtif', 'budaya', 'seperti', 'apa', 'yang', 'dapat', 'merusak', 'puasa', 'simak']</t>
+          <t>['bagaimana', 'menyikapi', 'khilafiyah', 'mengapa', 'dalam', 'islam', 'banyak', 'perbedaan', 'pendapat', 'bisakah', 'berbeda', 'tapi', 'samasama', 'bena']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['bagaimana', 'menyikapi', 'khilafiyah', 'mengapa', 'dalam', 'islam', 'banyak', 'perbedaan', 'pendapat', 'bisakah', 'berbeda', 'tapi', 'samasama', 'bena']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['solusi', 'menghadapi', 'puasa', 'konsumtif', 'budaya', 'merusak', 'puasa', 'simak']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['solusi', 'hadap', 'puasa', 'konsumtif', 'budaya', 'rusak', 'puasa', 'simak']</t>
+          <t>['menyikapi', 'khilafiyah', 'islam', 'perbedaan', 'pendapat', 'berbeda', 'samasama', 'bena']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['sikap', 'khilafiyah', 'islam', 'beda', 'dapat', 'beda', 'samasama', 'bena']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13828</v>
+        <v>29430</v>
       </c>
       <c r="C80" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">haruskah khilafah islamiyah bagaimana sistem kepemimpinan dlm islam sistem negara indonesia apakah bertentangan </t>
+          <t>bagaimana solusi menghadapi puasa yang konsumtif budaya seperti apa yang dapat merusak puasa simak</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['haruskah', 'khilafah', 'islamiyah', 'bagaimana', 'sistem', 'kepemimpinan', 'dlm', 'islam', 'sistem', 'negara', 'indonesia', 'apakah', 'bertentangan']</t>
+          <t>['bagaimana', 'solusi', 'menghadapi', 'puasa', 'yang', 'konsumtif', 'budaya', 'seperti', 'apa', 'yang', 'dapat', 'merusak', 'puasa', 'simak']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['bagaimana', 'solusi', 'menghadapi', 'puasa', 'yang', 'konsumtif', 'budaya', 'seperti', 'apa', 'yang', 'dapat', 'merusak', 'puasa', 'simak']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['haruskah', 'khilafah', 'islamiyah', 'sistem', 'kepemimpinan', 'dlm', 'islam', 'sistem', 'negara', 'indonesia', 'bertentangan']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['harus', 'khilafah', 'islamiyah', 'sistem', 'pimpin', 'dlm', 'islam', 'sistem', 'negara', 'indonesia', 'tentang']</t>
+          <t>['solusi', 'menghadapi', 'puasa', 'konsumtif', 'budaya', 'merusak', 'puasa', 'simak']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['solusi', 'hadap', 'puasa', 'konsumtif', 'budaya', 'rusak', 'puasa', 'simak']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13829</v>
+        <v>29431</v>
       </c>
       <c r="C81" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>mengapa alquran itu mulia kenapa kita harus rajin membaca alquran bagaimana cara kita memperoleh kemuliaan alqura</t>
+          <t xml:space="preserve">haruskah khilafah islamiyah bagaimana sistem kepemimpinan dlm islam sistem negara indonesia apakah bertentangan </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['mengapa', 'alquran', 'itu', 'mulia', 'kenapa', 'kita', 'harus', 'rajin', 'membaca', 'alquran', 'bagaimana', 'cara', 'kita', 'memperoleh', 'kemuliaan', 'alqura']</t>
+          <t>['haruskah', 'khilafah', 'islamiyah', 'bagaimana', 'sistem', 'kepemimpinan', 'dlm', 'islam', 'sistem', 'negara', 'indonesia', 'apakah', 'bertentangan']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['haruskah', 'khilafah', 'islamiyah', 'bagaimana', 'sistem', 'kepemimpinan', 'dalam', 'islam', 'sistem', 'negara', 'indonesia', 'apakah', 'bertentangan']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['alquran', 'mulia', 'rajin', 'membaca', 'alquran', 'memperoleh', 'kemuliaan', 'alqura']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['alquran', 'mulia', 'rajin', 'baca', 'alquran', 'oleh', 'mulia', 'alqura']</t>
+          <t>['haruskah', 'khilafah', 'islamiyah', 'sistem', 'kepemimpinan', 'islam', 'sistem', 'negara', 'indonesia', 'bertentangan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['harus', 'khilafah', 'islamiyah', 'sistem', 'pimpin', 'islam', 'sistem', 'negara', 'indonesia', 'tentang']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13830</v>
+        <v>29432</v>
       </c>
       <c r="C82" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>perubahan utk jadi lebih baik disebut hijrah atau tobat apa syarat berhijrah atau bertobat bolehkah mengklaim tob</t>
+          <t>mengapa alquran itu mulia kenapa kita harus rajin membaca alquran bagaimana cara kita memperoleh kemuliaan alqura</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['perubahan', 'utk', 'jadi', 'lebih', 'baik', 'disebut', 'hijrah', 'atau', 'tobat', 'apa', 'syarat', 'berhijrah', 'atau', 'bertobat', 'bolehkah', 'mengklaim', 'tob']</t>
+          <t>['mengapa', 'alquran', 'itu', 'mulia', 'kenapa', 'kita', 'harus', 'rajin', 'membaca', 'alquran', 'bagaimana', 'cara', 'kita', 'memperoleh', 'kemuliaan', 'alqura']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['mengapa', 'alquran', 'itu', 'mulia', 'kenapa', 'kita', 'harus', 'rajin', 'membaca', 'alquran', 'bagaimana', 'cara', 'kita', 'memperoleh', 'kemuliaan', 'alqura']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['perubahan', 'hijrah', 'tobat', 'syarat', 'berhijrah', 'bertobat', 'mengklaim', 'tob']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['ubah', 'hijrah', 'tobat', 'syarat', 'hijrah', 'tobat', 'klaim', 'tob']</t>
+          <t>['alquran', 'mulia', 'rajin', 'membaca', 'alquran', 'memperoleh', 'kemuliaan', 'alqura']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['alquran', 'mulia', 'rajin', 'baca', 'alquran', 'oleh', 'mulia', 'alqura']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13831</v>
+        <v>29433</v>
       </c>
       <c r="C83" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bagaimana etika puasa dalam islam apa yang terjadi jika kita berpuasa namun berperilaku buruk simak percakapan</t>
+          <t>perubahan utk jadi lebih baik disebut hijrah atau tobat apa syarat berhijrah atau bertobat bolehkah mengklaim tob</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['bagaimana', 'etika', 'puasa', 'dalam', 'islam', 'apa', 'yang', 'terjadi', 'jika', 'kita', 'berpuasa', 'namun', 'berperilaku', 'buruk', 'simak', 'percakapan']</t>
+          <t>['perubahan', 'utk', 'jadi', 'lebih', 'baik', 'disebut', 'hijrah', 'atau', 'tobat', 'apa', 'syarat', 'berhijrah', 'atau', 'bertobat', 'bolehkah', 'mengklaim', 'tob']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['perubahan', 'untuk', 'jadi', 'lebih', 'baik', 'disebut', 'hijrah', 'atau', 'tobat', 'apa', 'syarat', 'berhijrah', 'atau', 'bertobat', 'bolehkah', 'mengklaim', 'tob']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['etika', 'puasa', 'islam', 'berpuasa', 'berperilaku', 'buruk', 'simak', 'percakapan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['etika', 'puasa', 'islam', 'puasa', 'perilaku', 'buruk', 'simak', 'cakap']</t>
+          <t>['perubahan', 'hijrah', 'tobat', 'syarat', 'berhijrah', 'bertobat', 'mengklaim', 'tob']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['ubah', 'hijrah', 'tobat', 'syarat', 'hijrah', 'tobat', 'klaim', 'tob']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13832</v>
+        <v>29434</v>
       </c>
       <c r="C84" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">bagaimana cara kita kembali kepada alquran dan sunnah apakah kembali pada alquran dan sunnah menuntut kita untuk </t>
+          <t>bagaimana etika puasa dalam islam apa yang terjadi jika kita berpuasa namun berperilaku buruk simak percakapan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['bagaimana', 'cara', 'kita', 'kembali', 'kepada', 'alquran', 'dan', 'sunnah', 'apakah', 'kembali', 'pada', 'alquran', 'dan', 'sunnah', 'menuntut', 'kita', 'untuk']</t>
+          <t>['bagaimana', 'etika', 'puasa', 'dalam', 'islam', 'apa', 'yang', 'terjadi', 'jika', 'kita', 'berpuasa', 'namun', 'berperilaku', 'buruk', 'simak', 'percakapan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['bagaimana', 'etika', 'puasa', 'dalam', 'islam', 'apa', 'yang', 'terjadi', 'jika', 'kita', 'berpuasa', 'namun', 'berperilaku', 'buruk', 'simak', 'percakapan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['alquran', 'sunnah', 'alquran', 'sunnah', 'menuntut']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['alquran', 'sunnah', 'alquran', 'sunnah', 'tuntut']</t>
+          <t>['etika', 'puasa', 'islam', 'berpuasa', 'berperilaku', 'buruk', 'simak', 'percakapan']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['etika', 'puasa', 'islam', 'puasa', 'perilaku', 'buruk', 'simak', 'cakap']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13833</v>
+        <v>29435</v>
       </c>
       <c r="C85" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>spesial ramadan episode apakah sekolah agama pasti lebih baik daripada sekolah umum apaka</t>
+          <t xml:space="preserve">bagaimana cara kita kembali kepada alquran dan sunnah apakah kembali pada alquran dan sunnah menuntut kita untuk </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['spesial', 'ramadan', 'episode', 'apakah', 'sekolah', 'agama', 'pasti', 'lebih', 'baik', 'daripada', 'sekolah', 'umum', 'apaka']</t>
+          <t>['bagaimana', 'cara', 'kita', 'kembali', 'kepada', 'alquran', 'dan', 'sunnah', 'apakah', 'kembali', 'pada', 'alquran', 'dan', 'sunnah', 'menuntut', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['bagaimana', 'cara', 'kita', 'kembali', 'kepada', 'alquran', 'dan', 'sunnah', 'apakah', 'kembali', 'pada', 'alquran', 'dan', 'sunnah', 'menuntut', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['spesial', 'ramadan', 'episode', 'sekolah', 'agama', 'sekolah', 'apaka']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['spesial', 'ramadan', 'episode', 'sekolah', 'agama', 'sekolah', 'apaka']</t>
+          <t>['alquran', 'sunnah', 'alquran', 'sunnah', 'menuntut']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['alquran', 'sunnah', 'alquran', 'sunnah', 'tuntut']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13834</v>
+        <v>29436</v>
       </c>
       <c r="C86" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">dimensi ilahiah puasa apa amp bagaimana mencapainya tuhan tidak makan tapi memberi makan kata allah puasa itu </t>
+          <t>spesial ramadan episode apakah sekolah agama pasti lebih baik daripada sekolah umum apaka</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['dimensi', 'ilahiah', 'puasa', 'apa', 'amp', 'bagaimana', 'mencapainya', 'tuhan', 'tidak', 'makan', 'tapi', 'memberi', 'makan', 'kata', 'allah', 'puasa', 'itu']</t>
+          <t>['spesial', 'ramadan', 'episode', 'apakah', 'sekolah', 'agama', 'pasti', 'lebih', 'baik', 'daripada', 'sekolah', 'umum', 'apaka']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['spesial', 'ramadan', 'episode', 'apakah', 'sekolah', 'agama', 'pasti', 'lebih', 'baik', 'daripada', 'sekolah', 'umum', 'apakah']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['dimensi', 'ilahiah', 'puasa', 'mencapainya', 'tuhan', 'makan', 'makan', 'allah', 'puasa']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['dimensi', 'ilahiah', 'puasa', 'capa', 'tuhan', 'makan', 'makan', 'allah', 'puasa']</t>
+          <t>['spesial', 'ramadan', 'episode', 'sekolah', 'agama', 'sekolah']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['spesial', 'ramadan', 'episode', 'sekolah', 'agama', 'sekolah']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13835</v>
+        <v>29437</v>
       </c>
       <c r="C87" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>mengapa takwa dikatakan puncak pencapaian puasa bagaimana agar puasa dapat mengantarkan kita menjadi orang yang be</t>
+          <t xml:space="preserve">dimensi ilahiah puasa apa amp bagaimana mencapainya tuhan tidak makan tapi memberi makan kata allah puasa itu </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['mengapa', 'takwa', 'dikatakan', 'puncak', 'pencapaian', 'puasa', 'bagaimana', 'agar', 'puasa', 'dapat', 'mengantarkan', 'kita', 'menjadi', 'orang', 'yang', 'be']</t>
+          <t>['dimensi', 'ilahiah', 'puasa', 'apa', 'amp', 'bagaimana', 'mencapainya', 'tuhan', 'tidak', 'makan', 'tapi', 'memberi', 'makan', 'kata', 'allah', 'puasa', 'itu']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dimensi', 'ilahiah', 'puasa', 'apa', 'amp', 'bagaimana', 'mencapainya', 'tuhan', 'tidak', 'makan', 'tapi', 'memberi', 'makan', 'kata', 'allah', 'puasa', 'itu']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['takwa', 'puncak', 'pencapaian', 'puasa', 'puasa', 'mengantarkan', 'orang', 'be']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['takwa', 'puncak', 'capai', 'puasa', 'puasa', 'antar', 'orang', 'be']</t>
+          <t>['dimensi', 'ilahiah', 'puasa', 'mencapainya', 'tuhan', 'makan', 'makan', 'allah', 'puasa']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['dimensi', 'ilahiah', 'puasa', 'capa', 'tuhan', 'makan', 'makan', 'allah', 'puasa']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13836</v>
+        <v>29438</v>
       </c>
       <c r="C88" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>bagaimana cara bermedia sosial yang islami prinsip apa yang harus diamalkan saat belajar dari media sosial lengk</t>
+          <t>mengapa takwa dikatakan puncak pencapaian puasa bagaimana agar puasa dapat mengantarkan kita menjadi orang yang be</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['bagaimana', 'cara', 'bermedia', 'sosial', 'yang', 'islami', 'prinsip', 'apa', 'yang', 'harus', 'diamalkan', 'saat', 'belajar', 'dari', 'media', 'sosial', 'lengk']</t>
+          <t>['mengapa', 'takwa', 'dikatakan', 'puncak', 'pencapaian', 'puasa', 'bagaimana', 'agar', 'puasa', 'dapat', 'mengantarkan', 'kita', 'menjadi', 'orang', 'yang', 'be']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['mengapa', 'takwa', 'dikatakan', 'puncak', 'pencapaian', 'puasa', 'bagaimana', 'agar', 'puasa', 'dapat', 'mengantarkan', 'kita', 'menjadi', 'orang', 'yang', 'be']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['bermedia', 'sosial', 'islami', 'prinsip', 'diamalkan', 'belajar', 'media', 'sosial', 'lengk']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['media', 'sosial', 'islami', 'prinsip', 'amal', 'ajar', 'media', 'sosial', 'lengk']</t>
+          <t>['takwa', 'puncak', 'pencapaian', 'puasa', 'puasa', 'mengantarkan', 'orang', 'be']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['takwa', 'puncak', 'capai', 'puasa', 'puasa', 'antar', 'orang', 'be']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13837</v>
+        <v>29439</v>
       </c>
       <c r="C89" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>nantikan percakapan ustadz muchlis  hanafi bersama tentang berdakwah di media sosial simak</t>
+          <t>bagaimana cara bermedia sosial yang islami prinsip apa yang harus diamalkan saat belajar dari media sosial lengk</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['nantikan', 'percakapan', 'ustadz', 'muchlis', 'hanafi', 'bersama', 'tentang', 'berdakwah', 'di', 'media', 'sosial', 'simak']</t>
+          <t>['bagaimana', 'cara', 'bermedia', 'sosial', 'yang', 'islami', 'prinsip', 'apa', 'yang', 'harus', 'diamalkan', 'saat', 'belajar', 'dari', 'media', 'sosial', 'lengk']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['bagaimana', 'cara', 'bermedia', 'sosial', 'yang', 'islami', 'prinsip', 'apa', 'yang', 'harus', 'diamalkan', 'saat', 'belajar', 'dari', 'media', 'sosial', 'lengk']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['nantikan', 'percakapan', 'ustadz', 'muchlis', 'hanafi', 'berdakwah', 'media', 'sosial', 'simak']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['nanti', 'cakap', 'ustadz', 'muchlis', 'hanafi', 'dakwah', 'media', 'sosial', 'simak']</t>
+          <t>['bermedia', 'sosial', 'islami', 'prinsip', 'diamalkan', 'belajar', 'media', 'sosial', 'lengk']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['media', 'sosial', 'islami', 'prinsip', 'amal', 'ajar', 'media', 'sosial', 'lengk']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13838</v>
+        <v>29440</v>
       </c>
       <c r="C90" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>apa itu akhlak bagaimana menumbuhkan akhlak rasulullah saw terkhusus untuk anakanak selengkapnya di</t>
+          <t>nantikan percakapan ustadz muchlis  hanafi bersama tentang berdakwah di media sosial simak</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['apa', 'itu', 'akhlak', 'bagaimana', 'menumbuhkan', 'akhlak', 'rasulullah', 'saw', 'terkhusus', 'untuk', 'anakanak', 'selengkapnya', 'di']</t>
+          <t>['nantikan', 'percakapan', 'ustadz', 'muchlis', 'hanafi', 'bersama', 'tentang', 'berdakwah', 'di', 'media', 'sosial', 'simak']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['nantikan', 'percakapan', 'ustaz', 'muchlis', 'hanafi', 'bersama', 'tentang', 'berdakwah', 'di', 'media', 'sosial', 'simak']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['akhlak', 'menumbuhkan', 'akhlak', 'rasulullah', 'saw', 'terkhusus', 'anakanak', 'selengkapnya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['akhlak', 'tumbuh', 'akhlak', 'rasulullah', 'saw', 'khusus', 'anakanak', 'lengkap']</t>
+          <t>['nantikan', 'percakapan', 'ustaz', 'muchlis', 'hanafi', 'berdakwah', 'media', 'sosial', 'simak']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['nanti', 'cakap', 'ustaz', 'muchlis', 'hanafi', 'dakwah', 'media', 'sosial', 'simak']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13839</v>
+        <v>29441</v>
       </c>
       <c r="C91" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>apakah kita dilarang berteman dgn nonmuslim bagaimana kita bersikap thd teman nonmuslim seandainya tuhan ingin</t>
+          <t>apa itu akhlak bagaimana menumbuhkan akhlak rasulullah saw terkhusus untuk anakanak selengkapnya di</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['apakah', 'kita', 'dilarang', 'berteman', 'dgn', 'nonmuslim', 'bagaimana', 'kita', 'bersikap', 'thd', 'teman', 'nonmuslim', 'seandainya', 'tuhan', 'ingin']</t>
+          <t>['apa', 'itu', 'akhlak', 'bagaimana', 'menumbuhkan', 'akhlak', 'rasulullah', 'saw', 'terkhusus', 'untuk', 'anakanak', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['apa', 'itu', 'akhlak', 'bagaimana', 'menumbuhkan', 'akhlak', 'rasulullah', 'saw', 'terkhusus', 'untuk', 'anakanak', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['dilarang', 'berteman', 'nonmuslim', 'bersikap', 'thd', 'teman', 'nonmuslim', 'seandainya', 'tuhan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['larang', 'teman', 'nonmuslim', 'sikap', 'thd', 'teman', 'nonmuslim', 'anda', 'tuhan']</t>
+          <t>['akhlak', 'menumbuhkan', 'akhlak', 'rasulullah', 'saw', 'terkhusus', 'anakanak', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['akhlak', 'tumbuh', 'akhlak', 'rasulullah', 'saw', 'khusus', 'anakanak', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13840</v>
+        <v>29442</v>
       </c>
       <c r="C92" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bagaimana melakukan amar maruf nahi munkar kenapa susunannya amar maruf nahi munkar bukan sebaliknya simak len</t>
+          <t>apakah kita dilarang berteman dgn nonmuslim bagaimana kita bersikap thd teman nonmuslim seandainya tuhan ingin</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['bagaimana', 'melakukan', 'amar', 'maruf', 'nahi', 'munkar', 'kenapa', 'susunannya', 'amar', 'maruf', 'nahi', 'munkar', 'bukan', 'sebaliknya', 'simak', 'len']</t>
+          <t>['apakah', 'kita', 'dilarang', 'berteman', 'dgn', 'nonmuslim', 'bagaimana', 'kita', 'bersikap', 'thd', 'teman', 'nonmuslim', 'seandainya', 'tuhan', 'ingin']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['apakah', 'kita', 'dilarang', 'berteman', 'dengan', 'nonmuslim', 'bagaimana', 'kita', 'bersikap', 'terhadap', 'teman', 'nonmuslim', 'seandainya', 'tuhan', 'ingin']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'nahi', 'munkar', 'susunannya', 'amar', 'maruf', 'nahi', 'munkar', 'simak', 'len']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'nahi', 'munkar', 'susun', 'amar', 'maruf', 'nahi', 'munkar', 'simak', 'len']</t>
+          <t>['dilarang', 'berteman', 'nonmuslim', 'bersikap', 'teman', 'nonmuslim', 'seandainya', 'tuhan']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['larang', 'teman', 'nonmuslim', 'sikap', 'teman', 'nonmuslim', 'anda', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13841</v>
+        <v>29443</v>
       </c>
       <c r="C93" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">mengapa kita diwajibkan berpuasa apa tujuan berpuasa apa manfaatnya simak spesial ramadan </t>
+          <t>bagaimana melakukan amar maruf nahi munkar kenapa susunannya amar maruf nahi munkar bukan sebaliknya simak len</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['mengapa', 'kita', 'diwajibkan', 'berpuasa', 'apa', 'tujuan', 'berpuasa', 'apa', 'manfaatnya', 'simak', 'spesial', 'ramadan']</t>
+          <t>['bagaimana', 'melakukan', 'amar', 'maruf', 'nahi', 'munkar', 'kenapa', 'susunannya', 'amar', 'maruf', 'nahi', 'munkar', 'bukan', 'sebaliknya', 'simak', 'len']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['bagaimana', 'melakukan', 'amar', 'maruf', 'nahi', 'munkar', 'kenapa', 'susunannya', 'amar', 'maruf', 'nahi', 'munkar', 'bukan', 'sebaliknya', 'simak', 'len']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['diwajibkan', 'berpuasa', 'tujuan', 'berpuasa', 'manfaatnya', 'simak', 'spesial', 'ramadan']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['wajib', 'puasa', 'tuju', 'puasa', 'manfaat', 'simak', 'spesial', 'ramadan']</t>
+          <t>['amar', 'maruf', 'nahi', 'munkar', 'susunannya', 'amar', 'maruf', 'nahi', 'munkar', 'simak', 'len']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['amar', 'maruf', 'nahi', 'munkar', 'susun', 'amar', 'maruf', 'nahi', 'munkar', 'simak', 'len']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13842</v>
+        <v>29444</v>
       </c>
       <c r="C94" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>resep belajar agama yg baik seperti apa apa syarat belajar agama apa yang dilakukan saat salah amp bagaimana menemu</t>
+          <t xml:space="preserve">mengapa kita diwajibkan berpuasa apa tujuan berpuasa apa manfaatnya simak spesial ramadan </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['resep', 'belajar', 'agama', 'yg', 'baik', 'seperti', 'apa', 'apa', 'syarat', 'belajar', 'agama', 'apa', 'yang', 'dilakukan', 'saat', 'salah', 'amp', 'bagaimana', 'menemu']</t>
+          <t>['mengapa', 'kita', 'diwajibkan', 'berpuasa', 'apa', 'tujuan', 'berpuasa', 'apa', 'manfaatnya', 'simak', 'spesial', 'ramadan']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['mengapa', 'kita', 'diwajibkan', 'berpuasa', 'apa', 'tujuan', 'berpuasa', 'apa', 'manfaatnya', 'simak', 'spesial', 'ramadan']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['resep', 'belajar', 'agama', 'syarat', 'belajar', 'agama', 'salah', 'menemu']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['resep', 'ajar', 'agama', 'syarat', 'ajar', 'agama', 'salah', 'temu']</t>
+          <t>['diwajibkan', 'berpuasa', 'tujuan', 'berpuasa', 'manfaatnya', 'simak', 'spesial', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['wajib', 'puasa', 'tuju', 'puasa', 'manfaat', 'simak', 'spesial', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13843</v>
+        <v>29445</v>
       </c>
       <c r="C95" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>mari manfaatkan ramadan ini bukan hanya membaca tapi juga menjawab pertanyaan kita seharihari bersama saya ali</t>
+          <t>resep belajar agama yg baik seperti apa apa syarat belajar agama apa yang dilakukan saat salah amp bagaimana menemu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['mari', 'manfaatkan', 'ramadan', 'ini', 'bukan', 'hanya', 'membaca', 'tapi', 'juga', 'menjawab', 'pertanyaan', 'kita', 'seharihari', 'bersama', 'saya', 'ali']</t>
+          <t>['resep', 'belajar', 'agama', 'yg', 'baik', 'seperti', 'apa', 'apa', 'syarat', 'belajar', 'agama', 'apa', 'yang', 'dilakukan', 'saat', 'salah', 'amp', 'bagaimana', 'menemu']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['resep', 'belajar', 'agama', 'yang', 'baik', 'seperti', 'apa', 'apa', 'syarat', 'belajar', 'agama', 'apa', 'yang', 'dilakukan', 'saat', 'salah', 'amp', 'bagaimana', 'menemu']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mari', 'manfaatkan', 'ramadan', 'membaca', 'seharihari', 'ali']</t>
+          <t>&lt;FreqDist with 14 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['mari', 'manfaat', 'ramadan', 'baca', 'seharihari', 'ali']</t>
+          <t>['resep', 'belajar', 'agama', 'syarat', 'belajar', 'agama', 'salah', 'menemu']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['resep', 'ajar', 'agama', 'syarat', 'ajar', 'agama', 'salah', 'temu']</t>
         </is>
       </c>
     </row>
@@ -3859,30 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13844</v>
+        <v>29446</v>
       </c>
       <c r="C96" t="n">
-        <v>178</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>344</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>mari manfaatkan ramadan ini bukan hanya membaca tapi juga menjawab pertanyaan kita seharihari bersama saya ali</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mari', 'manfaatkan', 'ramadan', 'ini', 'bukan', 'hanya', 'membaca', 'tapi', 'juga', 'menjawab', 'pertanyaan', 'kita', 'seharihari', 'bersama', 'saya', 'ali']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mari', 'manfaatkan', 'ramadan', 'ini', 'bukan', 'hanya', 'membaca', 'tapi', 'juga', 'menjawab', 'pertanyaan', 'kita', 'seharihari', 'bersama', 'saya', 'ali']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mari', 'manfaatkan', 'ramadan', 'membaca', 'seharihari', 'ali']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['mari', 'manfaat', 'ramadan', 'baca', 'seharihari', 'ali']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4375,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13845</v>
+        <v>29447</v>
       </c>
       <c r="C97" t="n">
-        <v>178</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>telah terbit gtgt logika agama karya  quraish shihab</t>
-        </is>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['telah', 'terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13846</v>
+        <v>29448</v>
       </c>
       <c r="C98" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>new video bolehkah menyogok untuk mengajarkan anak berpuasa gtgt</t>
+          <t>telah terbit gtgt logika agama karya  quraish shihab</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['new', 'video', 'bolehkah', 'menyogok', 'untuk', 'mengajarkan', 'anak', 'berpuasa', 'gtgt']</t>
+          <t>['telah', 'terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['telah', 'terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['new', 'video', 'menyogok', 'mengajarkan', 'anak', 'berpuasa', 'gtgt']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['new', 'video', 'sogok', 'ajar', 'anak', 'puasa', 'gtgt']</t>
+          <t>['terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['terbit', 'gtgt', 'logika', 'agama', 'karya', 'quraish', 'shihab']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13847</v>
+        <v>29449</v>
       </c>
       <c r="C99" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>assalamualaikum selamat menunaikan ibadah puasa semoga kita mendapat rahmat dan berkah ramadhan</t>
+          <t>new video bolehkah menyogok untuk mengajarkan anak berpuasa gtgt</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'selamat', 'menunaikan', 'ibadah', 'puasa', 'semoga', 'kita', 'mendapat', 'rahmat', 'dan', 'berkah', 'ramadhan']</t>
+          <t>['new', 'video', 'bolehkah', 'menyogok', 'untuk', 'mengajarkan', 'anak', 'berpuasa', 'gtgt']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['new', 'video', 'bolehkah', 'menyogok', 'untuk', 'mengajarkan', 'anak', 'berpuasa', 'gtgt']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'selamat', 'menunaikan', 'ibadah', 'puasa', 'semoga', 'rahmat', 'berkah', 'ramadhan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'selamat', 'tunai', 'ibadah', 'puasa', 'moga', 'rahmat', 'berkah', 'ramadhan']</t>
+          <t>['new', 'video', 'menyogok', 'mengajarkan', 'anak', 'berpuasa', 'gtgt']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['new', 'video', 'sogok', 'ajar', 'anak', 'puasa', 'gtgt']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13848</v>
+        <v>29450</v>
       </c>
       <c r="C100" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt ikhlas dan berkah sisi lain kehidupan kaum santri tidak biasanya ustadz  quraish shihab mqs begitu kami http</t>
+          <t>assalamualaikum selamat menunaikan ibadah puasa semoga kita mendapat rahmat dan berkah ramadhan</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'ikhlas', 'dan', 'berkah', 'sisi', 'lain', 'kehidupan', 'kaum', 'santri', 'tidak', 'biasanya', 'ustadz', 'quraish', 'shihab', 'mqs', 'begitu', 'kami', 'http']</t>
+          <t>['assalamualaikum', 'selamat', 'menunaikan', 'ibadah', 'puasa', 'semoga', 'kita', 'mendapat', 'rahmat', 'dan', 'berkah', 'ramadhan']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['assalamualaikum', 'selamat', 'menunaikan', 'ibadah', 'puasa', 'semoga', 'kita', 'mendapat', 'rahmat', 'dan', 'berkah', 'ramadan']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['ikhlas', 'berkah', 'sisi', 'kehidupan', 'kaum', 'santri', 'ustadz', 'quraish', 'shihab', 'mqs', 'http']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ikhlas', 'berkah', 'sisi', 'hidup', 'kaum', 'santri', 'ustadz', 'quraish', 'shihab', 'mqs', 'http']</t>
+          <t>['assalamualaikum', 'selamat', 'menunaikan', 'ibadah', 'puasa', 'semoga', 'rahmat', 'berkah', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'selamat', 'tunai', 'ibadah', 'puasa', 'moga', 'rahmat', 'berkah', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13849</v>
+        <v>29451</v>
       </c>
       <c r="C101" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt cerita perjalanan bagian dari merdeka belajar bermakna tanpa tepuk tangan gtgt</t>
+          <t>rt ikhlas dan berkah sisi lain kehidupan kaum santri tidak biasanya ustadz  quraish shihab mqs begitu kami http</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'cerita', 'perjalanan', 'bagian', 'dari', 'merdeka', 'belajar', 'bermakna', 'tanpa', 'tepuk', 'tangan', 'gtgt']</t>
+          <t>['rt', 'ikhlas', 'dan', 'berkah', 'sisi', 'lain', 'kehidupan', 'kaum', 'santri', 'tidak', 'biasanya', 'ustadz', 'quraish', 'shihab', 'mqs', 'begitu', 'kami', 'http']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'ikhlas', 'dan', 'berkah', 'sisi', 'lain', 'kehidupan', 'kaum', 'santri', 'tidak', 'biasanya', 'ustaz', 'quraish', 'shihab', 'mqs', 'begitu', 'kami', 'hypertext, transfer, protocol']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['cerita', 'perjalanan', 'merdeka', 'belajar', 'bermakna', 'tepuk', 'tangan', 'gtgt']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['cerita', 'jalan', 'merdeka', 'ajar', 'makna', 'tepuk', 'tangan', 'gtgt']</t>
+          <t>['ikhlas', 'berkah', 'sisi', 'kehidupan', 'kaum', 'santri', 'ustaz', 'quraish', 'shihab', 'mqs', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['ikhlas', 'berkah', 'sisi', 'hidup', 'kaum', 'santri', 'ustaz', 'quraish', 'shihab', 'mqs', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
